--- a/Projects/CCRU_SAND/Data/KPIs_2018/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Convenience Big PoS 2018.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
@@ -64,6 +64,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="617">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -592,6 +594,9 @@
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000189301, 5449000235947</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Lemon - 1L</t>
   </si>
   <si>
@@ -622,10 +627,16 @@
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000193155, 5449000193155</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Lemon - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000193223, 5449000235954</t>
   </si>
   <si>
     <t xml:space="preserve">Juice Availability</t>
@@ -836,6 +847,9 @@
     <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">4607174579385, 4650075422922</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
   </si>
   <si>
@@ -1714,7 +1728,7 @@
     <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124, 5449000259455, 5449000235947, 5449000235770</t>
   </si>
   <si>
     <t xml:space="preserve">ANY Fuze Black 0.5L</t>
@@ -2277,7 +2291,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2322,10 +2336,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2346,11 +2356,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2397,12 +2407,8 @@
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -2478,45 +2484,44 @@
   </sheetPr>
   <dimension ref="1:312"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G111" activeCellId="0" sqref="G111:J137"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="AB33" activeCellId="0" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6842105263158"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.56275303643725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.914979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.9473684210526"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.7246963562753"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="46.8906882591093"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.8744939271255"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.7408906882591"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="25.9433198380567"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.5627530364372"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="12.8623481781377"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.004048582996"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.2955465587045"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.4615384615385"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="18.8178137651822"/>
-    <col collapsed="false" hidden="false" max="33" min="30" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="1007" min="35" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="1008" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="30" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1007" min="35" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1025" min="1008" style="0" width="22.4939271255061"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2601,7 +2606,7 @@
       <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="2" t="s">
@@ -2727,7 +2732,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="7"/>
+      <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
@@ -2812,7 +2817,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="7" t="n">
+      <c r="AB3" s="9" t="n">
         <v>5449000000286</v>
       </c>
       <c r="AC3" s="9" t="s">
@@ -2905,7 +2910,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="7" t="s">
+      <c r="AB4" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AC4" s="9" t="s">
@@ -2998,7 +3003,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="7" t="n">
+      <c r="AB5" s="9" t="n">
         <v>5449000000439</v>
       </c>
       <c r="AC5" s="9" t="s">
@@ -3091,7 +3096,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="7" t="n">
+      <c r="AB6" s="9" t="n">
         <v>54491472</v>
       </c>
       <c r="AC6" s="9" t="s">
@@ -3184,7 +3189,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="7" t="n">
+      <c r="AB7" s="9" t="n">
         <v>5449000000996</v>
       </c>
       <c r="AC7" s="9" t="s">
@@ -3277,7 +3282,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="7" t="s">
+      <c r="AB8" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AC8" s="9" t="s">
@@ -3370,7 +3375,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="7" t="s">
+      <c r="AB9" s="9" t="s">
         <v>76</v>
       </c>
       <c r="AC9" s="9" t="s">
@@ -3463,7 +3468,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="7" t="s">
+      <c r="AB10" s="9" t="s">
         <v>79</v>
       </c>
       <c r="AC10" s="9" t="s">
@@ -3556,7 +3561,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-      <c r="AB11" s="7" t="n">
+      <c r="AB11" s="9" t="n">
         <v>5449000133335</v>
       </c>
       <c r="AC11" s="9" t="s">
@@ -3649,7 +3654,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="7" t="n">
+      <c r="AB12" s="9" t="n">
         <v>5449000004864</v>
       </c>
       <c r="AC12" s="9" t="s">
@@ -3742,7 +3747,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="7" t="n">
+      <c r="AB13" s="9" t="n">
         <v>5449000004840</v>
       </c>
       <c r="AC13" s="9" t="s">
@@ -3835,7 +3840,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="7" t="n">
+      <c r="AB14" s="9" t="n">
         <v>5449000012203</v>
       </c>
       <c r="AC14" s="9" t="s">
@@ -3928,7 +3933,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="7" t="n">
+      <c r="AB15" s="9" t="n">
         <v>5449000044709</v>
       </c>
       <c r="AC15" s="9" t="s">
@@ -4021,7 +4026,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="7" t="n">
+      <c r="AB16" s="9" t="n">
         <v>40822938</v>
       </c>
       <c r="AC16" s="9" t="s">
@@ -4114,7 +4119,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="7" t="n">
+      <c r="AB17" s="9" t="n">
         <v>54491069</v>
       </c>
       <c r="AC17" s="9" t="s">
@@ -4207,7 +4212,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="7" t="n">
+      <c r="AB18" s="9" t="n">
         <v>5449000014535</v>
       </c>
       <c r="AC18" s="9" t="s">
@@ -4300,7 +4305,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="7" t="n">
+      <c r="AB19" s="9" t="n">
         <v>5449000052926</v>
       </c>
       <c r="AC19" s="9" t="s">
@@ -4393,7 +4398,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="7" t="n">
+      <c r="AB20" s="9" t="n">
         <v>5449000011527</v>
       </c>
       <c r="AC20" s="9" t="s">
@@ -4486,7 +4491,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="7" t="n">
+      <c r="AB21" s="9" t="n">
         <v>5449000131836</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -4579,7 +4584,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="7" t="n">
+      <c r="AB22" s="9" t="n">
         <v>5449000008046</v>
       </c>
       <c r="AC22" s="9" t="s">
@@ -4672,7 +4677,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="11" t="n">
+      <c r="AB23" s="9" t="n">
         <v>5449000214744</v>
       </c>
       <c r="AC23" s="9" t="s">
@@ -4765,7 +4770,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="7" t="n">
+      <c r="AB24" s="9" t="n">
         <v>5449000241467</v>
       </c>
       <c r="AC24" s="9" t="s">
@@ -4858,7 +4863,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="7" t="n">
+      <c r="AB25" s="9" t="n">
         <v>5449000172228</v>
       </c>
       <c r="AC25" s="9" t="s">
@@ -4951,7 +4956,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="7" t="s">
+      <c r="AB26" s="9" t="s">
         <v>112</v>
       </c>
       <c r="AC26" s="9" t="s">
@@ -5044,7 +5049,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="7" t="n">
+      <c r="AB27" s="9" t="n">
         <v>5449000044808</v>
       </c>
       <c r="AC27" s="9" t="s">
@@ -5137,7 +5142,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="7" t="n">
+      <c r="AB28" s="9" t="n">
         <v>5449000226259</v>
       </c>
       <c r="AC28" s="9" t="s">
@@ -5230,7 +5235,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="11" t="n">
+      <c r="AB29" s="9" t="n">
         <v>5449000251626</v>
       </c>
       <c r="AC29" s="9" t="s">
@@ -5323,7 +5328,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-      <c r="AB30" s="7" t="s">
+      <c r="AB30" s="5" t="s">
         <v>121</v>
       </c>
       <c r="AC30" s="5" t="s">
@@ -5416,7 +5421,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
-      <c r="AB31" s="7" t="s">
+      <c r="AB31" s="9" t="s">
         <v>124</v>
       </c>
       <c r="AC31" s="9" t="s">
@@ -5501,7 +5506,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="7"/>
+      <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
@@ -5586,7 +5591,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="7" t="n">
+      <c r="AB33" s="9" t="n">
         <v>5449000005489</v>
       </c>
       <c r="AC33" s="9" t="s">
@@ -5679,7 +5684,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="7" t="n">
+      <c r="AB34" s="9" t="n">
         <v>40822426</v>
       </c>
       <c r="AC34" s="9" t="s">
@@ -5772,7 +5777,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
-      <c r="AB35" s="7" t="n">
+      <c r="AB35" s="9" t="n">
         <v>5449000152190</v>
       </c>
       <c r="AC35" s="9" t="s">
@@ -5865,7 +5870,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
-      <c r="AB36" s="7" t="n">
+      <c r="AB36" s="9" t="n">
         <v>5449000032805</v>
       </c>
       <c r="AC36" s="9" t="s">
@@ -5958,7 +5963,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
-      <c r="AB37" s="7" t="n">
+      <c r="AB37" s="9" t="n">
         <v>90494956</v>
       </c>
       <c r="AC37" s="9" t="s">
@@ -6043,7 +6048,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
-      <c r="AB38" s="7"/>
+      <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
@@ -6128,7 +6133,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
-      <c r="AB39" s="7" t="n">
+      <c r="AB39" s="9" t="n">
         <v>5449000131768</v>
       </c>
       <c r="AC39" s="9" t="s">
@@ -6221,7 +6226,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
-      <c r="AB40" s="7" t="n">
+      <c r="AB40" s="9" t="n">
         <v>5060335632906</v>
       </c>
       <c r="AC40" s="9" t="s">
@@ -6314,7 +6319,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
-      <c r="AB41" s="7" t="n">
+      <c r="AB41" s="9" t="n">
         <v>5060466510869</v>
       </c>
       <c r="AC41" s="9" t="s">
@@ -6407,7 +6412,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
-      <c r="AB42" s="7" t="n">
+      <c r="AB42" s="9" t="n">
         <v>5449000148056</v>
       </c>
       <c r="AC42" s="9" t="s">
@@ -6492,7 +6497,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
-      <c r="AB43" s="7"/>
+      <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
@@ -6577,8 +6582,8 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
-      <c r="AB44" s="7" t="n">
-        <v>5449000189301</v>
+      <c r="AB44" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="AC44" s="9" t="s">
         <v>156</v>
@@ -6641,10 +6646,10 @@
         <v>42</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P45" s="8" t="n">
         <v>0.0048805</v>
@@ -6670,11 +6675,11 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
-      <c r="AB45" s="7" t="n">
+      <c r="AB45" s="9" t="n">
         <v>5449000189318</v>
       </c>
       <c r="AC45" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
@@ -6734,10 +6739,10 @@
         <v>42</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P46" s="8" t="n">
         <v>0.0048805</v>
@@ -6763,11 +6768,11 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
-      <c r="AB46" s="7" t="n">
+      <c r="AB46" s="9" t="n">
         <v>5449000233509</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
@@ -6827,10 +6832,10 @@
         <v>42</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P47" s="8" t="n">
         <v>0.0048805</v>
@@ -6856,11 +6861,11 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
-      <c r="AB47" s="7" t="n">
+      <c r="AB47" s="9" t="n">
         <v>5449000233615</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
@@ -6920,10 +6925,10 @@
         <v>42</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P48" s="8" t="n">
         <v>0.003741</v>
@@ -6949,11 +6954,11 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
-      <c r="AB48" s="7" t="n">
+      <c r="AB48" s="9" t="n">
         <v>5449000233622</v>
       </c>
       <c r="AC48" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
@@ -7013,10 +7018,10 @@
         <v>42</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P49" s="8" t="n">
         <v>0.003741</v>
@@ -7042,11 +7047,11 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
-      <c r="AB49" s="7" t="n">
-        <v>5449000193155</v>
+      <c r="AB49" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="AC49" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
@@ -7106,10 +7111,10 @@
         <v>42</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P50" s="8" t="n">
         <v>0.003741</v>
@@ -7135,11 +7140,11 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
-      <c r="AB50" s="7" t="n">
-        <v>5449000193223</v>
+      <c r="AB50" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="AC50" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
@@ -7186,23 +7191,23 @@
         <v>48</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>50</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5" t="s">
@@ -7220,7 +7225,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
-      <c r="AB51" s="7"/>
+      <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
@@ -7263,10 +7268,10 @@
         <v>48</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>51</v>
@@ -7276,10 +7281,10 @@
         <v>50</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P52" s="8" t="n">
         <v>0.0048804</v>
@@ -7305,11 +7310,11 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
-      <c r="AB52" s="7" t="n">
+      <c r="AB52" s="5" t="n">
         <v>4607042434877</v>
       </c>
       <c r="AC52" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
@@ -7356,10 +7361,10 @@
         <v>48</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>52</v>
@@ -7369,10 +7374,10 @@
         <v>50</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P53" s="8" t="n">
         <v>0.0048804</v>
@@ -7398,11 +7403,11 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
-      <c r="AB53" s="7" t="n">
+      <c r="AB53" s="5" t="n">
         <v>4607042434891</v>
       </c>
       <c r="AC53" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
@@ -7449,10 +7454,10 @@
         <v>48</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>53</v>
@@ -7462,10 +7467,10 @@
         <v>50</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P54" s="8" t="n">
         <v>0.0048804</v>
@@ -7491,11 +7496,11 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
-      <c r="AB54" s="7" t="n">
+      <c r="AB54" s="5" t="n">
         <v>4607042438738</v>
       </c>
       <c r="AC54" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
@@ -7542,10 +7547,10 @@
         <v>48</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>54</v>
@@ -7555,10 +7560,10 @@
         <v>50</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P55" s="8" t="n">
         <v>0.0048804</v>
@@ -7584,11 +7589,11 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
-      <c r="AB55" s="7" t="n">
+      <c r="AB55" s="5" t="n">
         <v>4607042438950</v>
       </c>
       <c r="AC55" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
@@ -7635,10 +7640,10 @@
         <v>48</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>55</v>
@@ -7648,10 +7653,10 @@
         <v>50</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P56" s="8" t="n">
         <v>0.0048804</v>
@@ -7677,11 +7682,11 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
-      <c r="AB56" s="7" t="n">
+      <c r="AB56" s="5" t="n">
         <v>4607042434884</v>
       </c>
       <c r="AC56" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
@@ -7728,10 +7733,10 @@
         <v>48</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>56</v>
@@ -7741,10 +7746,10 @@
         <v>50</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P57" s="8" t="n">
         <v>0.004042</v>
@@ -7770,11 +7775,11 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
-      <c r="AB57" s="7" t="n">
+      <c r="AB57" s="5" t="n">
         <v>4607042431388</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
@@ -7821,10 +7826,10 @@
         <v>48</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>57</v>
@@ -7834,10 +7839,10 @@
         <v>50</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P58" s="8" t="n">
         <v>0.004042</v>
@@ -7863,11 +7868,11 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
-      <c r="AB58" s="7" t="n">
+      <c r="AB58" s="5" t="n">
         <v>4607042431333</v>
       </c>
       <c r="AC58" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
@@ -7914,10 +7919,10 @@
         <v>48</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K59" s="5" t="n">
         <v>58</v>
@@ -7927,10 +7932,10 @@
         <v>50</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P59" s="8" t="n">
         <v>0.004042</v>
@@ -7956,11 +7961,11 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
-      <c r="AB59" s="7" t="n">
+      <c r="AB59" s="5" t="n">
         <v>4607042438776</v>
       </c>
       <c r="AC59" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
@@ -8007,10 +8012,10 @@
         <v>48</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>59</v>
@@ -8020,10 +8025,10 @@
         <v>50</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P60" s="8" t="n">
         <v>0.004042</v>
@@ -8049,11 +8054,11 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
-      <c r="AB60" s="7" t="n">
+      <c r="AB60" s="5" t="n">
         <v>4607174577787</v>
       </c>
       <c r="AC60" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
@@ -8100,10 +8105,10 @@
         <v>48</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>60</v>
@@ -8113,10 +8118,10 @@
         <v>50</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P61" s="8" t="n">
         <v>0.004042</v>
@@ -8142,11 +8147,11 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
-      <c r="AB61" s="7" t="n">
+      <c r="AB61" s="5" t="n">
         <v>4607042430619</v>
       </c>
       <c r="AC61" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
@@ -8193,10 +8198,10 @@
         <v>48</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>61</v>
@@ -8206,10 +8211,10 @@
         <v>50</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P62" s="8" t="n">
         <v>0.004042</v>
@@ -8235,11 +8240,11 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
-      <c r="AB62" s="7" t="n">
+      <c r="AB62" s="5" t="n">
         <v>4607042430565</v>
       </c>
       <c r="AC62" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
@@ -8286,10 +8291,10 @@
         <v>48</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K63" s="5" t="n">
         <v>62</v>
@@ -8299,10 +8304,10 @@
         <v>50</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P63" s="8" t="n">
         <v>0.004042</v>
@@ -8328,11 +8333,11 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
-      <c r="AB63" s="7" t="n">
+      <c r="AB63" s="5" t="n">
         <v>4607174579309</v>
       </c>
       <c r="AC63" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
@@ -8379,10 +8384,10 @@
         <v>48</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K64" s="5" t="n">
         <v>63</v>
@@ -8392,10 +8397,10 @@
         <v>50</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P64" s="8" t="n">
         <v>0.004042</v>
@@ -8421,11 +8426,11 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
-      <c r="AB64" s="7" t="n">
+      <c r="AB64" s="5" t="n">
         <v>4607174579286</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
@@ -8472,10 +8477,10 @@
         <v>48</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>64</v>
@@ -8485,10 +8490,10 @@
         <v>50</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P65" s="8" t="n">
         <v>0.004042</v>
@@ -8514,11 +8519,11 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
-      <c r="AB65" s="7" t="n">
+      <c r="AB65" s="5" t="n">
         <v>4607174577794</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
@@ -8565,10 +8570,10 @@
         <v>48</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>65</v>
@@ -8578,10 +8583,10 @@
         <v>50</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P66" s="8" t="n">
         <v>0.004042</v>
@@ -8607,11 +8612,11 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
-      <c r="AB66" s="7" t="n">
+      <c r="AB66" s="5" t="n">
         <v>4607042439155</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
@@ -8658,10 +8663,10 @@
         <v>48</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>66</v>
@@ -8671,10 +8676,10 @@
         <v>50</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P67" s="8" t="n">
         <v>0.004042</v>
@@ -8700,11 +8705,11 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
-      <c r="AB67" s="7" t="n">
+      <c r="AB67" s="5" t="n">
         <v>4607042439216</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
@@ -8751,10 +8756,10 @@
         <v>48</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>67</v>
@@ -8764,10 +8769,10 @@
         <v>50</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P68" s="8" t="n">
         <v>0.004042</v>
@@ -8793,11 +8798,11 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
-      <c r="AB68" s="7" t="n">
+      <c r="AB68" s="5" t="n">
         <v>4607042439223</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
@@ -8844,10 +8849,10 @@
         <v>48</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K69" s="5" t="n">
         <v>68</v>
@@ -8857,10 +8862,10 @@
         <v>50</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P69" s="8" t="n">
         <v>0.004042</v>
@@ -8886,11 +8891,11 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
-      <c r="AB69" s="7" t="s">
-        <v>210</v>
+      <c r="AB69" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="AC69" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
@@ -8937,10 +8942,10 @@
         <v>48</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>69</v>
@@ -8950,10 +8955,10 @@
         <v>50</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P70" s="8" t="n">
         <v>0.004042</v>
@@ -8979,11 +8984,11 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
-      <c r="AB70" s="7" t="s">
-        <v>214</v>
+      <c r="AB70" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="AC70" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
@@ -9030,10 +9035,10 @@
         <v>48</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K71" s="5" t="n">
         <v>70</v>
@@ -9043,10 +9048,10 @@
         <v>50</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P71" s="8" t="n">
         <v>0.004042</v>
@@ -9072,11 +9077,11 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
-      <c r="AB71" s="7" t="s">
-        <v>218</v>
+      <c r="AB71" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
@@ -9123,10 +9128,10 @@
         <v>48</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K72" s="5" t="n">
         <v>71</v>
@@ -9136,10 +9141,10 @@
         <v>50</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P72" s="8" t="n">
         <v>0.004042</v>
@@ -9165,11 +9170,11 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
-      <c r="AB72" s="7" t="n">
+      <c r="AB72" s="5" t="n">
         <v>4607174577145</v>
       </c>
       <c r="AC72" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
@@ -9216,10 +9221,10 @@
         <v>48</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K73" s="5" t="n">
         <v>72</v>
@@ -9229,10 +9234,10 @@
         <v>50</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P73" s="8" t="n">
         <v>0.004042</v>
@@ -9258,11 +9263,11 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
-      <c r="AB73" s="7" t="n">
+      <c r="AB73" s="5" t="n">
         <v>4607042438998</v>
       </c>
       <c r="AC73" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
@@ -9309,10 +9314,10 @@
         <v>48</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K74" s="5" t="n">
         <v>73</v>
@@ -9322,10 +9327,10 @@
         <v>50</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P74" s="8" t="n">
         <v>0.004042</v>
@@ -9351,11 +9356,11 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
-      <c r="AB74" s="7" t="n">
+      <c r="AB74" s="5" t="n">
         <v>4607042431371</v>
       </c>
       <c r="AC74" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
@@ -9402,10 +9407,10 @@
         <v>48</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K75" s="5" t="n">
         <v>74</v>
@@ -9415,10 +9420,10 @@
         <v>50</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P75" s="8" t="n">
         <v>0.004042</v>
@@ -9444,11 +9449,11 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
-      <c r="AB75" s="7" t="n">
-        <v>4607174579385</v>
+      <c r="AB75" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="AC75" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
@@ -9495,10 +9500,10 @@
         <v>48</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K76" s="5" t="n">
         <v>75</v>
@@ -9508,10 +9513,10 @@
         <v>50</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P76" s="8" t="n">
         <v>0.004042</v>
@@ -9537,11 +9542,11 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
-      <c r="AB76" s="7" t="n">
+      <c r="AB76" s="5" t="n">
         <v>4650075420287</v>
       </c>
       <c r="AC76" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
@@ -9588,10 +9593,10 @@
         <v>48</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K77" s="5" t="n">
         <v>76</v>
@@ -9601,10 +9606,10 @@
         <v>50</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P77" s="8" t="n">
         <v>0.003741</v>
@@ -9630,11 +9635,11 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
-      <c r="AB77" s="7" t="n">
+      <c r="AB77" s="5" t="n">
         <v>4650075420249</v>
       </c>
       <c r="AC77" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
@@ -9681,10 +9686,10 @@
         <v>48</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K78" s="5" t="n">
         <v>77</v>
@@ -9694,10 +9699,10 @@
         <v>50</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P78" s="8" t="n">
         <v>0.003741</v>
@@ -9723,11 +9728,11 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
-      <c r="AB78" s="7" t="n">
+      <c r="AB78" s="9" t="n">
         <v>4650075420980</v>
       </c>
       <c r="AC78" s="9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
@@ -9774,10 +9779,10 @@
         <v>48</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K79" s="5" t="n">
         <v>78</v>
@@ -9787,10 +9792,10 @@
         <v>50</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P79" s="8" t="n">
         <v>0.003741</v>
@@ -9816,11 +9821,11 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
-      <c r="AB79" s="7" t="n">
+      <c r="AB79" s="11" t="n">
         <v>4650075421970</v>
       </c>
-      <c r="AC79" s="12" t="s">
-        <v>236</v>
+      <c r="AC79" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
@@ -9867,10 +9872,10 @@
         <v>48</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K80" s="5" t="n">
         <v>79</v>
@@ -9880,10 +9885,10 @@
         <v>50</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P80" s="8" t="n">
         <v>0.003741</v>
@@ -9909,11 +9914,11 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
-      <c r="AB80" s="7" t="n">
+      <c r="AB80" s="5" t="n">
         <v>4650075421147</v>
       </c>
       <c r="AC80" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
@@ -9960,10 +9965,10 @@
         <v>48</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K81" s="5" t="n">
         <v>80</v>
@@ -9973,10 +9978,10 @@
         <v>50</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P81" s="8" t="n">
         <v>0.003741</v>
@@ -10002,11 +10007,11 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
-      <c r="AB81" s="7" t="n">
+      <c r="AB81" s="9" t="n">
         <v>4650075421932</v>
       </c>
       <c r="AC81" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
@@ -10053,10 +10058,10 @@
         <v>48</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K82" s="5" t="n">
         <v>81</v>
@@ -10066,10 +10071,10 @@
         <v>50</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P82" s="8" t="n">
         <v>0.003741</v>
@@ -10095,11 +10100,11 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
-      <c r="AB82" s="7" t="n">
+      <c r="AB82" s="5" t="n">
         <v>4607174579729</v>
       </c>
       <c r="AC82" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
@@ -10146,10 +10151,10 @@
         <v>48</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K83" s="5" t="n">
         <v>82</v>
@@ -10158,11 +10163,11 @@
       <c r="M83" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="N83" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="O83" s="13" t="s">
-        <v>244</v>
+      <c r="N83" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="P83" s="8" t="n">
         <v>0.003741</v>
@@ -10188,11 +10193,11 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
-      <c r="AB83" s="7" t="s">
-        <v>245</v>
+      <c r="AB83" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="AC83" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
@@ -10239,10 +10244,10 @@
         <v>48</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K84" s="5" t="n">
         <v>83</v>
@@ -10252,10 +10257,10 @@
         <v>50</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P84" s="8" t="n">
         <v>0.003741</v>
@@ -10281,11 +10286,11 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
-      <c r="AB84" s="7" t="n">
+      <c r="AB84" s="5" t="n">
         <v>4607174579668</v>
       </c>
       <c r="AC84" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
@@ -10332,10 +10337,10 @@
         <v>48</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K85" s="5" t="n">
         <v>84</v>
@@ -10345,10 +10350,10 @@
         <v>50</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P85" s="8" t="n">
         <v>0.0037195</v>
@@ -10374,11 +10379,11 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
-      <c r="AB85" s="7" t="n">
+      <c r="AB85" s="9" t="n">
         <v>4607042438967</v>
       </c>
       <c r="AC85" s="9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
@@ -10425,10 +10430,10 @@
         <v>48</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K86" s="5" t="n">
         <v>85</v>
@@ -10438,10 +10443,10 @@
         <v>50</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P86" s="8" t="n">
         <v>0.0037195</v>
@@ -10467,11 +10472,11 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
-      <c r="AB86" s="7" t="n">
+      <c r="AB86" s="9" t="n">
         <v>4607174579248</v>
       </c>
       <c r="AC86" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
@@ -10500,7 +10505,7 @@
         <v>43</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>45</v>
@@ -10512,41 +10517,41 @@
         <v>2</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K87" s="5" t="n">
         <v>86</v>
       </c>
       <c r="L87" s="5"/>
-      <c r="M87" s="14"/>
+      <c r="M87" s="13"/>
       <c r="N87" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P87" s="8" t="n">
         <v>0.06</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U87" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
@@ -10556,23 +10561,23 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
-      <c r="AB87" s="7" t="s">
-        <v>263</v>
+      <c r="AB87" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="AC87" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="7"/>
       <c r="AG87" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AH87" s="7"/>
       <c r="AI87" s="5"/>
       <c r="AJ87" s="5"/>
       <c r="AK87" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL87" s="5"/>
       <c r="AM87" s="5"/>
@@ -10589,51 +10594,51 @@
         <v>43</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F88" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K88" s="5" t="n">
         <v>87</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P88" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="R88" s="5"/>
       <c r="S88" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T88" s="5"/>
       <c r="U88" s="5" t="s">
@@ -10647,7 +10652,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
-      <c r="AB88" s="7"/>
+      <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
@@ -10657,14 +10662,14 @@
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
       <c r="AK88" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL88" s="5"/>
       <c r="AM88" s="5"/>
       <c r="AN88" s="5"/>
       <c r="AO88" s="5"/>
       <c r="AP88" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ88" s="5"/>
     </row>
@@ -10676,28 +10681,28 @@
         <v>43</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F89" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K89" s="5" t="n">
         <v>88</v>
@@ -10707,10 +10712,10 @@
         <v>87</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P89" s="8" t="n">
         <v>0</v>
@@ -10736,7 +10741,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
-      <c r="AB89" s="7" t="n">
+      <c r="AB89" s="5" t="n">
         <v>54491472</v>
       </c>
       <c r="AC89" s="5" t="s">
@@ -10750,14 +10755,14 @@
       <c r="AI89" s="5"/>
       <c r="AJ89" s="5"/>
       <c r="AK89" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL89" s="5"/>
       <c r="AM89" s="5"/>
       <c r="AN89" s="5"/>
       <c r="AO89" s="5"/>
       <c r="AP89" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ89" s="5"/>
     </row>
@@ -10769,28 +10774,28 @@
         <v>43</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F90" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K90" s="5" t="n">
         <v>89</v>
@@ -10800,10 +10805,10 @@
         <v>87</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P90" s="8" t="n">
         <v>0</v>
@@ -10829,7 +10834,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
-      <c r="AB90" s="7" t="n">
+      <c r="AB90" s="5" t="n">
         <v>54491069</v>
       </c>
       <c r="AC90" s="5" t="s">
@@ -10843,14 +10848,14 @@
       <c r="AI90" s="5"/>
       <c r="AJ90" s="5"/>
       <c r="AK90" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL90" s="5"/>
       <c r="AM90" s="5"/>
       <c r="AN90" s="5"/>
       <c r="AO90" s="5"/>
       <c r="AP90" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ90" s="5"/>
     </row>
@@ -10862,28 +10867,28 @@
         <v>43</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F91" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K91" s="5" t="n">
         <v>90</v>
@@ -10893,10 +10898,10 @@
         <v>87</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P91" s="8" t="n">
         <v>0</v>
@@ -10922,7 +10927,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
-      <c r="AB91" s="7" t="n">
+      <c r="AB91" s="5" t="n">
         <v>40822938</v>
       </c>
       <c r="AC91" s="5" t="s">
@@ -10936,14 +10941,14 @@
       <c r="AI91" s="5"/>
       <c r="AJ91" s="5"/>
       <c r="AK91" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL91" s="5"/>
       <c r="AM91" s="5"/>
       <c r="AN91" s="5"/>
       <c r="AO91" s="5"/>
       <c r="AP91" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ91" s="5"/>
     </row>
@@ -10955,28 +10960,28 @@
         <v>43</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F92" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K92" s="5" t="n">
         <v>91</v>
@@ -10986,10 +10991,10 @@
         <v>87</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P92" s="8" t="n">
         <v>0</v>
@@ -11015,7 +11020,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
-      <c r="AB92" s="7" t="n">
+      <c r="AB92" s="5" t="n">
         <v>5449000131836</v>
       </c>
       <c r="AC92" s="5" t="s">
@@ -11029,14 +11034,14 @@
       <c r="AI92" s="5"/>
       <c r="AJ92" s="5"/>
       <c r="AK92" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL92" s="5"/>
       <c r="AM92" s="5"/>
       <c r="AN92" s="5"/>
       <c r="AO92" s="5"/>
       <c r="AP92" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ92" s="5"/>
     </row>
@@ -11048,28 +11053,28 @@
         <v>43</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F93" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K93" s="5" t="n">
         <v>92</v>
@@ -11079,10 +11084,10 @@
         <v>87</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P93" s="8" t="n">
         <v>0</v>
@@ -11108,11 +11113,11 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
-      <c r="AB93" s="7" t="s">
+      <c r="AB93" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AC93" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
@@ -11122,14 +11127,14 @@
       <c r="AI93" s="5"/>
       <c r="AJ93" s="5"/>
       <c r="AK93" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL93" s="5"/>
       <c r="AM93" s="5"/>
       <c r="AN93" s="5"/>
       <c r="AO93" s="5"/>
       <c r="AP93" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ93" s="5"/>
     </row>
@@ -11141,28 +11146,28 @@
         <v>43</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F94" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K94" s="5" t="n">
         <v>93</v>
@@ -11172,10 +11177,10 @@
         <v>87</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P94" s="8" t="n">
         <v>0</v>
@@ -11201,11 +11206,11 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
-      <c r="AB94" s="7" t="s">
+      <c r="AB94" s="5" t="s">
         <v>79</v>
       </c>
       <c r="AC94" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
@@ -11215,14 +11220,14 @@
       <c r="AI94" s="5"/>
       <c r="AJ94" s="5"/>
       <c r="AK94" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL94" s="5"/>
       <c r="AM94" s="5"/>
       <c r="AN94" s="5"/>
       <c r="AO94" s="5"/>
       <c r="AP94" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ94" s="5"/>
     </row>
@@ -11234,28 +11239,28 @@
         <v>43</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F95" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K95" s="5" t="n">
         <v>94</v>
@@ -11265,10 +11270,10 @@
         <v>87</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P95" s="8" t="n">
         <v>0</v>
@@ -11294,11 +11299,11 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
-      <c r="AB95" s="7" t="s">
+      <c r="AB95" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
@@ -11308,14 +11313,14 @@
       <c r="AI95" s="5"/>
       <c r="AJ95" s="5"/>
       <c r="AK95" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL95" s="5"/>
       <c r="AM95" s="5"/>
       <c r="AN95" s="5"/>
       <c r="AO95" s="5"/>
       <c r="AP95" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ95" s="5"/>
     </row>
@@ -11327,7 +11332,7 @@
         <v>43</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>45</v>
@@ -11339,41 +11344,41 @@
         <v>2</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K96" s="5" t="n">
         <v>95</v>
       </c>
       <c r="L96" s="5"/>
-      <c r="M96" s="14"/>
+      <c r="M96" s="13"/>
       <c r="N96" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P96" s="8" t="n">
         <v>0.05</v>
       </c>
       <c r="Q96" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
       <c r="T96" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
@@ -11383,23 +11388,23 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
-      <c r="AB96" s="7" t="s">
-        <v>296</v>
+      <c r="AB96" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="AC96" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="7"/>
       <c r="AG96" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AH96" s="7"/>
       <c r="AI96" s="5"/>
       <c r="AJ96" s="5"/>
       <c r="AK96" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL96" s="5"/>
       <c r="AM96" s="5"/>
@@ -11416,51 +11421,51 @@
         <v>43</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F97" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K97" s="5" t="n">
         <v>96</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P97" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q97" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="R97" s="5"/>
       <c r="S97" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T97" s="5"/>
       <c r="U97" s="5" t="s">
@@ -11474,7 +11479,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
-      <c r="AB97" s="7"/>
+      <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
@@ -11484,14 +11489,14 @@
       <c r="AI97" s="5"/>
       <c r="AJ97" s="5"/>
       <c r="AK97" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL97" s="5"/>
       <c r="AM97" s="5"/>
       <c r="AN97" s="5"/>
       <c r="AO97" s="5"/>
       <c r="AP97" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ97" s="5"/>
     </row>
@@ -11503,28 +11508,28 @@
         <v>43</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F98" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K98" s="5" t="n">
         <v>97</v>
@@ -11534,10 +11539,10 @@
         <v>96</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P98" s="8" t="n">
         <v>0</v>
@@ -11563,11 +11568,11 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
-      <c r="AB98" s="7" t="n">
+      <c r="AB98" s="5" t="n">
         <v>4607042434877</v>
       </c>
       <c r="AC98" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
@@ -11577,14 +11582,14 @@
       <c r="AI98" s="5"/>
       <c r="AJ98" s="5"/>
       <c r="AK98" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL98" s="5"/>
       <c r="AM98" s="5"/>
       <c r="AN98" s="5"/>
       <c r="AO98" s="5"/>
       <c r="AP98" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ98" s="5"/>
     </row>
@@ -11596,28 +11601,28 @@
         <v>43</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F99" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K99" s="5" t="n">
         <v>98</v>
@@ -11627,10 +11632,10 @@
         <v>96</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P99" s="8" t="n">
         <v>0</v>
@@ -11656,11 +11661,11 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
-      <c r="AB99" s="7" t="n">
+      <c r="AB99" s="5" t="n">
         <v>4607042434891</v>
       </c>
       <c r="AC99" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
@@ -11670,14 +11675,14 @@
       <c r="AI99" s="5"/>
       <c r="AJ99" s="5"/>
       <c r="AK99" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL99" s="5"/>
       <c r="AM99" s="5"/>
       <c r="AN99" s="5"/>
       <c r="AO99" s="5"/>
       <c r="AP99" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ99" s="5"/>
     </row>
@@ -11689,28 +11694,28 @@
         <v>43</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F100" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K100" s="5" t="n">
         <v>99</v>
@@ -11720,10 +11725,10 @@
         <v>96</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P100" s="8" t="n">
         <v>0</v>
@@ -11749,11 +11754,11 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
-      <c r="AB100" s="7" t="n">
+      <c r="AB100" s="5" t="n">
         <v>4607042438738</v>
       </c>
       <c r="AC100" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
@@ -11763,14 +11768,14 @@
       <c r="AI100" s="5"/>
       <c r="AJ100" s="5"/>
       <c r="AK100" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL100" s="5"/>
       <c r="AM100" s="5"/>
       <c r="AN100" s="5"/>
       <c r="AO100" s="5"/>
       <c r="AP100" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ100" s="5"/>
     </row>
@@ -11782,28 +11787,28 @@
         <v>43</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F101" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K101" s="5" t="n">
         <v>100</v>
@@ -11813,10 +11818,10 @@
         <v>96</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O101" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P101" s="8" t="n">
         <v>0</v>
@@ -11842,11 +11847,11 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
-      <c r="AB101" s="7" t="s">
-        <v>210</v>
+      <c r="AB101" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="AC101" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
@@ -11856,14 +11861,14 @@
       <c r="AI101" s="5"/>
       <c r="AJ101" s="5"/>
       <c r="AK101" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL101" s="5"/>
       <c r="AM101" s="5"/>
       <c r="AN101" s="5"/>
       <c r="AO101" s="5"/>
       <c r="AP101" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ101" s="5"/>
     </row>
@@ -11875,28 +11880,28 @@
         <v>43</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F102" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K102" s="5" t="n">
         <v>101</v>
@@ -11906,10 +11911,10 @@
         <v>96</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P102" s="8" t="n">
         <v>0</v>
@@ -11935,11 +11940,11 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
-      <c r="AB102" s="7" t="s">
-        <v>214</v>
+      <c r="AB102" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="AC102" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
@@ -11949,14 +11954,14 @@
       <c r="AI102" s="5"/>
       <c r="AJ102" s="5"/>
       <c r="AK102" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL102" s="5"/>
       <c r="AM102" s="5"/>
       <c r="AN102" s="5"/>
       <c r="AO102" s="5"/>
       <c r="AP102" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ102" s="5"/>
     </row>
@@ -11968,7 +11973,7 @@
         <v>43</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>45</v>
@@ -11980,41 +11985,41 @@
         <v>2</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K103" s="5" t="n">
         <v>102</v>
       </c>
       <c r="L103" s="5"/>
-      <c r="M103" s="14"/>
+      <c r="M103" s="13"/>
       <c r="N103" s="5" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P103" s="8" t="n">
         <v>0.015</v>
       </c>
       <c r="Q103" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
       <c r="T103" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U103" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
@@ -12024,23 +12029,23 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
-      <c r="AB103" s="7" t="s">
-        <v>315</v>
+      <c r="AB103" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="AC103" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="7"/>
       <c r="AG103" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AH103" s="7"/>
       <c r="AI103" s="5"/>
       <c r="AJ103" s="5"/>
       <c r="AK103" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL103" s="5"/>
       <c r="AM103" s="5"/>
@@ -12057,51 +12062,51 @@
         <v>43</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F104" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K104" s="5" t="n">
         <v>103</v>
       </c>
-      <c r="L104" s="15" t="s">
-        <v>316</v>
+      <c r="L104" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P104" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="R104" s="5"/>
       <c r="S104" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T104" s="5"/>
       <c r="U104" s="5" t="s">
@@ -12115,7 +12120,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
-      <c r="AB104" s="7"/>
+      <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
@@ -12125,14 +12130,14 @@
       <c r="AI104" s="5"/>
       <c r="AJ104" s="5"/>
       <c r="AK104" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL104" s="5"/>
       <c r="AM104" s="5"/>
       <c r="AN104" s="5"/>
       <c r="AO104" s="5"/>
       <c r="AP104" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ104" s="5"/>
     </row>
@@ -12144,28 +12149,28 @@
         <v>43</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F105" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K105" s="5" t="n">
         <v>104</v>
@@ -12175,10 +12180,10 @@
         <v>103</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P105" s="8" t="n">
         <v>0</v>
@@ -12204,11 +12209,11 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
-      <c r="AB105" s="7" t="n">
+      <c r="AB105" s="5" t="n">
         <v>5449000005489</v>
       </c>
       <c r="AC105" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
@@ -12218,14 +12223,14 @@
       <c r="AI105" s="5"/>
       <c r="AJ105" s="5"/>
       <c r="AK105" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL105" s="5"/>
       <c r="AM105" s="5"/>
       <c r="AN105" s="5"/>
       <c r="AO105" s="5"/>
       <c r="AP105" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ105" s="5"/>
     </row>
@@ -12237,7 +12242,7 @@
         <v>43</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>45</v>
@@ -12249,41 +12254,41 @@
         <v>2</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K106" s="5" t="n">
         <v>105</v>
       </c>
       <c r="L106" s="5"/>
-      <c r="M106" s="14"/>
+      <c r="M106" s="13"/>
       <c r="N106" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P106" s="8" t="n">
         <v>0.03</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="R106" s="5"/>
       <c r="S106" s="5"/>
       <c r="T106" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U106" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
@@ -12293,23 +12298,23 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
-      <c r="AB106" s="7" t="s">
-        <v>327</v>
+      <c r="AB106" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="AC106" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="7"/>
       <c r="AG106" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AH106" s="7"/>
       <c r="AI106" s="5"/>
       <c r="AJ106" s="5"/>
       <c r="AK106" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL106" s="5"/>
       <c r="AM106" s="5"/>
@@ -12326,51 +12331,51 @@
         <v>43</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F107" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K107" s="5" t="n">
         <v>106</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O107" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P107" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="R107" s="5"/>
       <c r="S107" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T107" s="5"/>
       <c r="U107" s="5" t="s">
@@ -12384,7 +12389,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
-      <c r="AB107" s="7"/>
+      <c r="AB107" s="5"/>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
@@ -12394,14 +12399,14 @@
       <c r="AI107" s="5"/>
       <c r="AJ107" s="5"/>
       <c r="AK107" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL107" s="5"/>
       <c r="AM107" s="5"/>
       <c r="AN107" s="5"/>
       <c r="AO107" s="5"/>
       <c r="AP107" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ107" s="5"/>
     </row>
@@ -12413,28 +12418,28 @@
         <v>43</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F108" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K108" s="5" t="n">
         <v>107</v>
@@ -12444,10 +12449,10 @@
         <v>106</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P108" s="8" t="n">
         <v>0</v>
@@ -12473,11 +12478,11 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
-      <c r="AB108" s="7" t="n">
+      <c r="AB108" s="5" t="n">
         <v>5449000189318</v>
       </c>
       <c r="AC108" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
@@ -12487,14 +12492,14 @@
       <c r="AI108" s="5"/>
       <c r="AJ108" s="5"/>
       <c r="AK108" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL108" s="5"/>
       <c r="AM108" s="5"/>
       <c r="AN108" s="5"/>
       <c r="AO108" s="5"/>
       <c r="AP108" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ108" s="5"/>
     </row>
@@ -12506,28 +12511,28 @@
         <v>43</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F109" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K109" s="5" t="n">
         <v>108</v>
@@ -12537,10 +12542,10 @@
         <v>106</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O109" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P109" s="8" t="n">
         <v>0</v>
@@ -12566,11 +12571,11 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
-      <c r="AB109" s="7" t="n">
+      <c r="AB109" s="5" t="n">
         <v>5449000233509</v>
       </c>
       <c r="AC109" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
@@ -12580,14 +12585,14 @@
       <c r="AI109" s="5"/>
       <c r="AJ109" s="5"/>
       <c r="AK109" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL109" s="5"/>
       <c r="AM109" s="5"/>
       <c r="AN109" s="5"/>
       <c r="AO109" s="5"/>
       <c r="AP109" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AQ109" s="5"/>
     </row>
@@ -12599,7 +12604,7 @@
         <v>43</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>45</v>
@@ -12611,16 +12616,16 @@
         <v>2</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K110" s="5" t="n">
         <v>109</v>
@@ -12628,24 +12633,24 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P110" s="8" t="n">
         <v>0.025</v>
       </c>
       <c r="Q110" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
       <c r="T110" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U110" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
@@ -12655,23 +12660,23 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
-      <c r="AB110" s="7" t="s">
-        <v>340</v>
+      <c r="AB110" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="AC110" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
       <c r="AF110" s="7"/>
       <c r="AG110" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AH110" s="7"/>
       <c r="AI110" s="5"/>
       <c r="AJ110" s="5"/>
       <c r="AK110" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL110" s="5"/>
       <c r="AM110" s="5"/>
@@ -12688,7 +12693,7 @@
         <v>43</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>45</v>
@@ -12700,39 +12705,39 @@
         <v>2</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K111" s="5" t="n">
         <v>110</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P111" s="8" t="n">
         <v>0.05</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R111" s="16"/>
+        <v>353</v>
+      </c>
+      <c r="R111" s="15"/>
       <c r="S111" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T111" s="5"/>
       <c r="U111" s="5" t="s">
@@ -12746,7 +12751,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
-      <c r="AB111" s="7"/>
+      <c r="AB111" s="5"/>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
@@ -12756,7 +12761,7 @@
       <c r="AI111" s="5"/>
       <c r="AJ111" s="5"/>
       <c r="AK111" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL111" s="5"/>
       <c r="AM111" s="5"/>
@@ -12775,7 +12780,7 @@
         <v>43</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>45</v>
@@ -12787,16 +12792,16 @@
         <v>3</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K112" s="5" t="n">
         <v>111</v>
@@ -12806,10 +12811,10 @@
         <v>110</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P112" s="8" t="n">
         <v>0</v>
@@ -12822,7 +12827,7 @@
         <v>57</v>
       </c>
       <c r="T112" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U112" s="5" t="s">
         <v>59</v>
@@ -12835,23 +12840,23 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
-      <c r="AB112" s="7" t="s">
-        <v>263</v>
+      <c r="AB112" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="AC112" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
       <c r="AF112" s="7"/>
       <c r="AG112" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AH112" s="7"/>
       <c r="AI112" s="5"/>
       <c r="AJ112" s="5"/>
       <c r="AK112" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL112" s="5"/>
       <c r="AM112" s="5"/>
@@ -12870,7 +12875,7 @@
         <v>43</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>45</v>
@@ -12882,16 +12887,16 @@
         <v>3</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K113" s="5" t="n">
         <v>112</v>
@@ -12901,23 +12906,23 @@
         <v>110</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P113" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q113" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="R113" s="5"/>
       <c r="S113" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T113" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="U113" s="5" t="s">
         <v>59</v>
@@ -12930,7 +12935,7 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
-      <c r="AB113" s="7"/>
+      <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
@@ -12938,11 +12943,11 @@
       <c r="AG113" s="7"/>
       <c r="AH113" s="7"/>
       <c r="AI113" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AJ113" s="5"/>
       <c r="AK113" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL113" s="5"/>
       <c r="AM113" s="5"/>
@@ -12961,7 +12966,7 @@
         <v>43</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>45</v>
@@ -12973,16 +12978,16 @@
         <v>3</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K114" s="5" t="n">
         <v>113</v>
@@ -12992,16 +12997,16 @@
         <v>110</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O114" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P114" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q114" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="R114" s="5"/>
       <c r="S114" s="5" t="s">
@@ -13019,7 +13024,7 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
-      <c r="AB114" s="7" t="n">
+      <c r="AB114" s="5" t="n">
         <v>5449000000439</v>
       </c>
       <c r="AC114" s="5" t="s">
@@ -13029,13 +13034,13 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="7"/>
       <c r="AG114" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AH114" s="7"/>
       <c r="AI114" s="5"/>
       <c r="AJ114" s="5"/>
       <c r="AK114" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL114" s="5"/>
       <c r="AM114" s="5"/>
@@ -13045,7 +13050,7 @@
       <c r="AO114" s="5"/>
       <c r="AP114" s="5"/>
       <c r="AQ114" s="5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13056,51 +13061,51 @@
         <v>43</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F115" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K115" s="5" t="n">
         <v>114</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P115" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R115" s="16"/>
+        <v>353</v>
+      </c>
+      <c r="R115" s="15"/>
       <c r="S115" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T115" s="5"/>
       <c r="U115" s="5" t="s">
@@ -13114,9 +13119,9 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
       <c r="AA115" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB115" s="7"/>
+        <v>351</v>
+      </c>
+      <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
@@ -13126,7 +13131,7 @@
       <c r="AI115" s="5"/>
       <c r="AJ115" s="5"/>
       <c r="AK115" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL115" s="5"/>
       <c r="AM115" s="5"/>
@@ -13136,7 +13141,7 @@
       <c r="AO115" s="5"/>
       <c r="AP115" s="5"/>
       <c r="AQ115" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13147,28 +13152,28 @@
         <v>43</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F116" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K116" s="5" t="n">
         <v>115</v>
@@ -13178,10 +13183,10 @@
         <v>114</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P116" s="8" t="n">
         <v>0</v>
@@ -13207,7 +13212,7 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
       <c r="AA116" s="5"/>
-      <c r="AB116" s="7" t="n">
+      <c r="AB116" s="5" t="n">
         <v>5449000000439</v>
       </c>
       <c r="AC116" s="5" t="s">
@@ -13221,7 +13226,7 @@
       <c r="AI116" s="5"/>
       <c r="AJ116" s="5"/>
       <c r="AK116" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL116" s="5"/>
       <c r="AM116" s="5"/>
@@ -13240,28 +13245,28 @@
         <v>43</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F117" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K117" s="5" t="n">
         <v>116</v>
@@ -13271,10 +13276,10 @@
         <v>114</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P117" s="8" t="n">
         <v>0</v>
@@ -13300,7 +13305,7 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
       <c r="AA117" s="5"/>
-      <c r="AB117" s="7" t="n">
+      <c r="AB117" s="5" t="n">
         <v>5449000012203</v>
       </c>
       <c r="AC117" s="5" t="s">
@@ -13314,7 +13319,7 @@
       <c r="AI117" s="5"/>
       <c r="AJ117" s="5"/>
       <c r="AK117" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL117" s="5"/>
       <c r="AM117" s="5"/>
@@ -13333,28 +13338,28 @@
         <v>43</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F118" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K118" s="5" t="n">
         <v>117</v>
@@ -13364,10 +13369,10 @@
         <v>114</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P118" s="8" t="n">
         <v>0</v>
@@ -13393,7 +13398,7 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
-      <c r="AB118" s="7" t="n">
+      <c r="AB118" s="5" t="n">
         <v>5449000052926</v>
       </c>
       <c r="AC118" s="5" t="s">
@@ -13407,7 +13412,7 @@
       <c r="AI118" s="5"/>
       <c r="AJ118" s="5"/>
       <c r="AK118" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL118" s="5"/>
       <c r="AM118" s="5"/>
@@ -13426,7 +13431,7 @@
         <v>43</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>45</v>
@@ -13438,39 +13443,39 @@
         <v>2</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K119" s="5" t="n">
         <v>118</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P119" s="8" t="n">
         <v>0.04</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R119" s="16"/>
+        <v>353</v>
+      </c>
+      <c r="R119" s="15"/>
       <c r="S119" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T119" s="5"/>
       <c r="U119" s="5" t="s">
@@ -13484,7 +13489,7 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
-      <c r="AB119" s="7"/>
+      <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
@@ -13494,7 +13499,7 @@
       <c r="AI119" s="5"/>
       <c r="AJ119" s="5"/>
       <c r="AK119" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL119" s="5"/>
       <c r="AM119" s="5"/>
@@ -13513,7 +13518,7 @@
         <v>43</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>45</v>
@@ -13525,16 +13530,16 @@
         <v>3</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K120" s="5" t="n">
         <v>119</v>
@@ -13544,10 +13549,10 @@
         <v>118</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P120" s="8" t="n">
         <v>0</v>
@@ -13560,7 +13565,7 @@
         <v>57</v>
       </c>
       <c r="T120" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U120" s="5" t="s">
         <v>59</v>
@@ -13573,23 +13578,23 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
-      <c r="AB120" s="7" t="s">
-        <v>263</v>
+      <c r="AB120" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="AC120" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
       <c r="AF120" s="7"/>
       <c r="AG120" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AH120" s="7"/>
       <c r="AI120" s="5"/>
       <c r="AJ120" s="5"/>
       <c r="AK120" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL120" s="5"/>
       <c r="AM120" s="5"/>
@@ -13608,7 +13613,7 @@
         <v>43</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>45</v>
@@ -13620,16 +13625,16 @@
         <v>3</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K121" s="5" t="n">
         <v>120</v>
@@ -13639,23 +13644,23 @@
         <v>118</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="O121" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P121" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q121" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="R121" s="5"/>
       <c r="S121" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T121" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="U121" s="5" t="s">
         <v>59</v>
@@ -13668,7 +13673,7 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
-      <c r="AB121" s="7"/>
+      <c r="AB121" s="5"/>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
       <c r="AE121" s="5"/>
@@ -13676,11 +13681,11 @@
       <c r="AG121" s="7"/>
       <c r="AH121" s="7"/>
       <c r="AI121" s="5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AJ121" s="5"/>
       <c r="AK121" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL121" s="5"/>
       <c r="AM121" s="5"/>
@@ -13699,7 +13704,7 @@
         <v>43</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>45</v>
@@ -13711,16 +13716,16 @@
         <v>3</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K122" s="5" t="n">
         <v>121</v>
@@ -13730,16 +13735,16 @@
         <v>118</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P122" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="R122" s="5"/>
       <c r="S122" s="5" t="s">
@@ -13757,23 +13762,23 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
-      <c r="AB122" s="7" t="s">
+      <c r="AB122" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AC122" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
       <c r="AF122" s="7"/>
       <c r="AG122" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AH122" s="7"/>
       <c r="AI122" s="5"/>
       <c r="AJ122" s="5"/>
       <c r="AK122" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL122" s="5"/>
       <c r="AM122" s="5"/>
@@ -13783,7 +13788,7 @@
       <c r="AO122" s="5"/>
       <c r="AP122" s="5"/>
       <c r="AQ122" s="5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13794,51 +13799,51 @@
         <v>43</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F123" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K123" s="5" t="n">
         <v>122</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P123" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R123" s="16"/>
+        <v>353</v>
+      </c>
+      <c r="R123" s="15"/>
       <c r="S123" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T123" s="5"/>
       <c r="U123" s="5" t="s">
@@ -13852,9 +13857,9 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
       <c r="AA123" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB123" s="7"/>
+        <v>376</v>
+      </c>
+      <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
       <c r="AD123" s="5"/>
       <c r="AE123" s="5"/>
@@ -13864,7 +13869,7 @@
       <c r="AI123" s="5"/>
       <c r="AJ123" s="5"/>
       <c r="AK123" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL123" s="5"/>
       <c r="AM123" s="5"/>
@@ -13874,7 +13879,7 @@
       <c r="AO123" s="5"/>
       <c r="AP123" s="5"/>
       <c r="AQ123" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13885,28 +13890,28 @@
         <v>43</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F124" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K124" s="5" t="n">
         <v>123</v>
@@ -13916,10 +13921,10 @@
         <v>122</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P124" s="8" t="n">
         <v>0</v>
@@ -13945,11 +13950,11 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
-      <c r="AB124" s="7" t="s">
+      <c r="AB124" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AC124" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
@@ -13959,7 +13964,7 @@
       <c r="AI124" s="5"/>
       <c r="AJ124" s="5"/>
       <c r="AK124" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL124" s="5"/>
       <c r="AM124" s="5"/>
@@ -13978,28 +13983,28 @@
         <v>43</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F125" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K125" s="5" t="n">
         <v>124</v>
@@ -14009,10 +14014,10 @@
         <v>122</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P125" s="8" t="n">
         <v>0</v>
@@ -14038,11 +14043,11 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
-      <c r="AB125" s="7" t="s">
+      <c r="AB125" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AC125" s="5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
@@ -14052,7 +14057,7 @@
       <c r="AI125" s="5"/>
       <c r="AJ125" s="5"/>
       <c r="AK125" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL125" s="5"/>
       <c r="AM125" s="5"/>
@@ -14071,7 +14076,7 @@
         <v>43</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>45</v>
@@ -14083,39 +14088,39 @@
         <v>2</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K126" s="5" t="n">
         <v>125</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="O126" s="5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P126" s="8" t="n">
         <v>0.05</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R126" s="16"/>
+        <v>353</v>
+      </c>
+      <c r="R126" s="15"/>
       <c r="S126" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T126" s="5"/>
       <c r="U126" s="5" t="s">
@@ -14129,7 +14134,7 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
       <c r="AA126" s="5"/>
-      <c r="AB126" s="7"/>
+      <c r="AB126" s="5"/>
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
       <c r="AE126" s="5"/>
@@ -14139,7 +14144,7 @@
       <c r="AI126" s="5"/>
       <c r="AJ126" s="5"/>
       <c r="AK126" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL126" s="5"/>
       <c r="AM126" s="5"/>
@@ -14158,7 +14163,7 @@
         <v>43</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>45</v>
@@ -14170,16 +14175,16 @@
         <v>3</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K127" s="5" t="n">
         <v>126</v>
@@ -14189,10 +14194,10 @@
         <v>125</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="O127" s="5" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P127" s="8" t="n">
         <v>0</v>
@@ -14205,7 +14210,7 @@
         <v>57</v>
       </c>
       <c r="T127" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U127" s="5" t="s">
         <v>59</v>
@@ -14218,23 +14223,23 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
-      <c r="AB127" s="7" t="s">
-        <v>296</v>
+      <c r="AB127" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="AC127" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
       <c r="AF127" s="7"/>
       <c r="AG127" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AH127" s="7"/>
       <c r="AI127" s="5"/>
       <c r="AJ127" s="5"/>
       <c r="AK127" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
@@ -14253,7 +14258,7 @@
         <v>43</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>45</v>
@@ -14265,16 +14270,16 @@
         <v>3</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K128" s="5" t="n">
         <v>127</v>
@@ -14284,23 +14289,23 @@
         <v>125</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P128" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="R128" s="5"/>
       <c r="S128" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T128" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="U128" s="5" t="s">
         <v>59</v>
@@ -14313,7 +14318,7 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
-      <c r="AB128" s="7"/>
+      <c r="AB128" s="5"/>
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
@@ -14321,11 +14326,11 @@
       <c r="AG128" s="7"/>
       <c r="AH128" s="7"/>
       <c r="AI128" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AJ128" s="5"/>
       <c r="AK128" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL128" s="5"/>
       <c r="AM128" s="5"/>
@@ -14344,7 +14349,7 @@
         <v>43</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>45</v>
@@ -14356,37 +14361,37 @@
         <v>3</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K129" s="5" t="n">
         <v>128</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M129" s="5" t="n">
         <v>125</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="O129" s="5" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P129" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q129" s="5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="R129" s="5"/>
       <c r="S129" s="5" t="s">
@@ -14404,7 +14409,7 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
-      <c r="AB129" s="7"/>
+      <c r="AB129" s="5"/>
       <c r="AC129" s="5"/>
       <c r="AD129" s="5"/>
       <c r="AE129" s="5"/>
@@ -14414,7 +14419,7 @@
       <c r="AI129" s="5"/>
       <c r="AJ129" s="5"/>
       <c r="AK129" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL129" s="5"/>
       <c r="AM129" s="5"/>
@@ -14433,7 +14438,7 @@
         <v>43</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>45</v>
@@ -14445,16 +14450,16 @@
         <v>4</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K130" s="5" t="n">
         <v>129</v>
@@ -14464,16 +14469,16 @@
         <v>128</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P130" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="R130" s="5"/>
       <c r="S130" s="5" t="s">
@@ -14491,11 +14496,11 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
-      <c r="AB130" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="AC130" s="18" t="s">
-        <v>408</v>
+      <c r="AB130" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC130" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
@@ -14505,7 +14510,7 @@
       <c r="AI130" s="5"/>
       <c r="AJ130" s="5"/>
       <c r="AK130" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL130" s="5"/>
       <c r="AM130" s="5"/>
@@ -14515,7 +14520,7 @@
       <c r="AO130" s="5"/>
       <c r="AP130" s="5"/>
       <c r="AQ130" s="5" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14526,7 +14531,7 @@
         <v>43</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>45</v>
@@ -14538,16 +14543,16 @@
         <v>4</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K131" s="5" t="n">
         <v>130</v>
@@ -14557,16 +14562,16 @@
         <v>128</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="O131" s="5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P131" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q131" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="R131" s="5"/>
       <c r="S131" s="5" t="s">
@@ -14584,11 +14589,11 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
       <c r="AA131" s="5"/>
-      <c r="AB131" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="AC131" s="18" t="s">
-        <v>413</v>
+      <c r="AB131" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC131" s="16" t="s">
+        <v>417</v>
       </c>
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
@@ -14598,7 +14603,7 @@
       <c r="AI131" s="5"/>
       <c r="AJ131" s="5"/>
       <c r="AK131" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL131" s="5"/>
       <c r="AM131" s="5"/>
@@ -14608,7 +14613,7 @@
       <c r="AO131" s="5"/>
       <c r="AP131" s="5"/>
       <c r="AQ131" s="5" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14619,51 +14624,51 @@
         <v>43</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F132" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K132" s="5" t="n">
         <v>131</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M132" s="5"/>
       <c r="N132" s="5" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P132" s="8" t="n">
         <v>0.01</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R132" s="16"/>
+        <v>353</v>
+      </c>
+      <c r="R132" s="15"/>
       <c r="S132" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T132" s="5"/>
       <c r="U132" s="5" t="s">
@@ -14677,9 +14682,9 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
       <c r="AA132" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="AB132" s="7"/>
+        <v>398</v>
+      </c>
+      <c r="AB132" s="5"/>
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
       <c r="AE132" s="5"/>
@@ -14689,7 +14694,7 @@
       <c r="AI132" s="5"/>
       <c r="AJ132" s="5"/>
       <c r="AK132" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL132" s="5"/>
       <c r="AM132" s="5"/>
@@ -14699,7 +14704,7 @@
       <c r="AO132" s="5"/>
       <c r="AP132" s="5"/>
       <c r="AQ132" s="5" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14710,28 +14715,28 @@
         <v>43</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F133" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K133" s="5" t="n">
         <v>132</v>
@@ -14741,10 +14746,10 @@
         <v>131</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P133" s="8" t="n">
         <v>0</v>
@@ -14770,11 +14775,11 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
       <c r="AA133" s="5"/>
-      <c r="AB133" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="AC133" s="18" t="s">
-        <v>408</v>
+      <c r="AB133" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC133" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="AD133" s="5"/>
       <c r="AE133" s="5"/>
@@ -14784,7 +14789,7 @@
       <c r="AI133" s="5"/>
       <c r="AJ133" s="5"/>
       <c r="AK133" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL133" s="5"/>
       <c r="AM133" s="5"/>
@@ -14803,28 +14808,28 @@
         <v>43</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F134" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K134" s="5" t="n">
         <v>133</v>
@@ -14834,10 +14839,10 @@
         <v>131</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="O134" s="5" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P134" s="8" t="n">
         <v>0</v>
@@ -14863,11 +14868,11 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
       <c r="AA134" s="5"/>
-      <c r="AB134" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="AC134" s="18" t="s">
-        <v>413</v>
+      <c r="AB134" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC134" s="16" t="s">
+        <v>417</v>
       </c>
       <c r="AD134" s="5"/>
       <c r="AE134" s="5"/>
@@ -14877,7 +14882,7 @@
       <c r="AI134" s="5"/>
       <c r="AJ134" s="5"/>
       <c r="AK134" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL134" s="5"/>
       <c r="AM134" s="5"/>
@@ -14896,28 +14901,28 @@
         <v>43</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F135" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K135" s="5" t="n">
         <v>134</v>
@@ -14927,10 +14932,10 @@
         <v>131</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="O135" s="5" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P135" s="8" t="n">
         <v>0</v>
@@ -14956,11 +14961,11 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
       <c r="AA135" s="5"/>
-      <c r="AB135" s="7" t="n">
+      <c r="AB135" s="5" t="n">
         <v>4607042438738</v>
       </c>
       <c r="AC135" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AD135" s="5"/>
       <c r="AE135" s="5"/>
@@ -14970,7 +14975,7 @@
       <c r="AI135" s="5"/>
       <c r="AJ135" s="5"/>
       <c r="AK135" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL135" s="5"/>
       <c r="AM135" s="5"/>
@@ -14989,28 +14994,28 @@
         <v>43</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F136" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K136" s="5" t="n">
         <v>135</v>
@@ -15020,10 +15025,10 @@
         <v>131</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="O136" s="5" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P136" s="8" t="n">
         <v>0</v>
@@ -15049,11 +15054,11 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
       <c r="AA136" s="5"/>
-      <c r="AB136" s="7" t="n">
+      <c r="AB136" s="5" t="n">
         <v>4607042438950</v>
       </c>
       <c r="AC136" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AD136" s="5"/>
       <c r="AE136" s="5"/>
@@ -15063,7 +15068,7 @@
       <c r="AI136" s="5"/>
       <c r="AJ136" s="5"/>
       <c r="AK136" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL136" s="5"/>
       <c r="AM136" s="5"/>
@@ -15082,7 +15087,7 @@
         <v>43</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>45</v>
@@ -15094,39 +15099,39 @@
         <v>2</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K137" s="5" t="n">
         <v>136</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M137" s="5"/>
       <c r="N137" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="O137" s="5" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P137" s="8" t="n">
         <v>0.03</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R137" s="16"/>
+        <v>353</v>
+      </c>
+      <c r="R137" s="15"/>
       <c r="S137" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T137" s="5"/>
       <c r="U137" s="5" t="s">
@@ -15140,7 +15145,7 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
       <c r="AA137" s="5"/>
-      <c r="AB137" s="7"/>
+      <c r="AB137" s="5"/>
       <c r="AC137" s="5"/>
       <c r="AD137" s="5"/>
       <c r="AE137" s="5"/>
@@ -15150,7 +15155,7 @@
       <c r="AI137" s="5"/>
       <c r="AJ137" s="5"/>
       <c r="AK137" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AL137" s="5"/>
       <c r="AM137" s="5"/>
@@ -15167,7 +15172,7 @@
         <v>43</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>45</v>
@@ -15179,16 +15184,16 @@
         <v>3</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K138" s="5" t="n">
         <v>137</v>
@@ -15198,10 +15203,10 @@
         <v>136</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="P138" s="8" t="n">
         <v>0</v>
@@ -15214,7 +15219,7 @@
         <v>57</v>
       </c>
       <c r="T138" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U138" s="5" t="s">
         <v>59</v>
@@ -15227,23 +15232,23 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
       <c r="AA138" s="5"/>
-      <c r="AB138" s="7" t="s">
-        <v>327</v>
+      <c r="AB138" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="AC138" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD138" s="5"/>
       <c r="AE138" s="5"/>
       <c r="AF138" s="7"/>
       <c r="AG138" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AH138" s="7"/>
       <c r="AI138" s="5"/>
       <c r="AJ138" s="5"/>
       <c r="AK138" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AL138" s="5"/>
       <c r="AM138" s="5"/>
@@ -15260,7 +15265,7 @@
         <v>43</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>45</v>
@@ -15272,16 +15277,16 @@
         <v>3</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K139" s="5" t="n">
         <v>138</v>
@@ -15291,23 +15296,23 @@
         <v>136</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P139" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q139" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="R139" s="5"/>
       <c r="S139" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T139" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="U139" s="5" t="s">
         <v>59</v>
@@ -15320,7 +15325,7 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
       <c r="AA139" s="5"/>
-      <c r="AB139" s="7"/>
+      <c r="AB139" s="5"/>
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
       <c r="AE139" s="5"/>
@@ -15328,11 +15333,11 @@
       <c r="AG139" s="7"/>
       <c r="AH139" s="7"/>
       <c r="AI139" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AJ139" s="5"/>
       <c r="AK139" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AL139" s="5"/>
       <c r="AM139" s="5"/>
@@ -15349,7 +15354,7 @@
         <v>43</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>45</v>
@@ -15361,37 +15366,37 @@
         <v>3</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K140" s="5" t="n">
         <v>139</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M140" s="5" t="n">
         <v>136</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="O140" s="5" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P140" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q140" s="5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="R140" s="5"/>
       <c r="S140" s="5" t="s">
@@ -15409,7 +15414,7 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
       <c r="AA140" s="5"/>
-      <c r="AB140" s="7"/>
+      <c r="AB140" s="5"/>
       <c r="AC140" s="5"/>
       <c r="AD140" s="5"/>
       <c r="AE140" s="5"/>
@@ -15419,7 +15424,7 @@
       <c r="AI140" s="5"/>
       <c r="AJ140" s="5"/>
       <c r="AK140" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AL140" s="5"/>
       <c r="AM140" s="5"/>
@@ -15436,7 +15441,7 @@
         <v>43</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>45</v>
@@ -15448,16 +15453,16 @@
         <v>4</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K141" s="5" t="n">
         <v>140</v>
@@ -15467,16 +15472,16 @@
         <v>139</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="O141" s="5" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P141" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q141" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="R141" s="5"/>
       <c r="S141" s="5" t="s">
@@ -15494,11 +15499,11 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
-      <c r="AB141" s="7" t="n">
+      <c r="AB141" s="5" t="n">
         <v>5449000189318</v>
       </c>
       <c r="AC141" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD141" s="5"/>
       <c r="AE141" s="5"/>
@@ -15508,7 +15513,7 @@
       <c r="AI141" s="5"/>
       <c r="AJ141" s="5"/>
       <c r="AK141" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AL141" s="5"/>
       <c r="AM141" s="5"/>
@@ -15516,7 +15521,7 @@
       <c r="AO141" s="5"/>
       <c r="AP141" s="5"/>
       <c r="AQ141" s="5" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15527,7 +15532,7 @@
         <v>43</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>45</v>
@@ -15539,16 +15544,16 @@
         <v>4</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K142" s="5" t="n">
         <v>141</v>
@@ -15558,16 +15563,16 @@
         <v>139</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O142" s="5" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P142" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q142" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="R142" s="5"/>
       <c r="S142" s="5" t="s">
@@ -15585,11 +15590,11 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
-      <c r="AB142" s="7" t="n">
+      <c r="AB142" s="5" t="n">
         <v>5449000233509</v>
       </c>
       <c r="AC142" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AD142" s="5"/>
       <c r="AE142" s="5"/>
@@ -15599,7 +15604,7 @@
       <c r="AI142" s="5"/>
       <c r="AJ142" s="5"/>
       <c r="AK142" s="5" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AL142" s="5"/>
       <c r="AM142" s="5"/>
@@ -15607,7 +15612,7 @@
       <c r="AO142" s="5"/>
       <c r="AP142" s="5"/>
       <c r="AQ142" s="5" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15618,7 +15623,7 @@
         <v>43</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>45</v>
@@ -15630,51 +15635,51 @@
         <v>2</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K143" s="5" t="n">
         <v>142</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M143" s="5"/>
       <c r="N143" s="5" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="O143" s="5" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P143" s="8" t="n">
         <v>0.09</v>
       </c>
       <c r="Q143" s="5" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="R143" s="5"/>
       <c r="S143" s="5" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="T143" s="5"/>
       <c r="U143" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="V143" s="5"/>
       <c r="W143" s="5"/>
-      <c r="X143" s="16"/>
+      <c r="X143" s="15"/>
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
       <c r="AA143" s="5"/>
-      <c r="AB143" s="7"/>
+      <c r="AB143" s="5"/>
       <c r="AC143" s="5"/>
       <c r="AD143" s="5"/>
       <c r="AE143" s="5"/>
@@ -15690,7 +15695,7 @@
       <c r="AO143" s="5"/>
       <c r="AP143" s="5"/>
       <c r="AQ143" s="5" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15701,7 +15706,7 @@
         <v>43</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>45</v>
@@ -15713,16 +15718,16 @@
         <v>3</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K144" s="5" t="n">
         <v>143</v>
@@ -15732,20 +15737,21 @@
         <v>142</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="O144" s="5" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P144" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>459</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="R144" s="0"/>
       <c r="S144" s="5"/>
       <c r="T144" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="U144" s="5" t="s">
         <v>59</v>
@@ -15760,11 +15766,11 @@
       </c>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
-      <c r="AB144" s="7" t="s">
-        <v>461</v>
+      <c r="AB144" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="AC144" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD144" s="5"/>
       <c r="AE144" s="5"/>
@@ -15774,7 +15780,7 @@
       <c r="AI144" s="5"/>
       <c r="AJ144" s="5"/>
       <c r="AK144" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL144" s="5"/>
       <c r="AM144" s="5"/>
@@ -15791,7 +15797,7 @@
         <v>43</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>45</v>
@@ -15803,16 +15809,16 @@
         <v>3</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K145" s="5" t="n">
         <v>144</v>
@@ -15822,21 +15828,21 @@
         <v>142</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O145" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P145" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q145" s="5" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="R145" s="5"/>
       <c r="S145" s="5"/>
       <c r="T145" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="U145" s="5" t="s">
         <v>59</v>
@@ -15849,11 +15855,11 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
-      <c r="AB145" s="7" t="s">
-        <v>461</v>
+      <c r="AB145" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="AC145" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD145" s="5"/>
       <c r="AE145" s="5"/>
@@ -15863,7 +15869,7 @@
       <c r="AI145" s="5"/>
       <c r="AJ145" s="5"/>
       <c r="AK145" s="5" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AL145" s="5"/>
       <c r="AM145" s="5"/>
@@ -15880,7 +15886,7 @@
         <v>43</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>45</v>
@@ -15892,16 +15898,16 @@
         <v>2</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K146" s="5" t="n">
         <v>145</v>
@@ -15909,21 +15915,21 @@
       <c r="L146" s="5"/>
       <c r="M146" s="10"/>
       <c r="N146" s="5" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O146" s="5" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P146" s="8" t="n">
         <v>0.0225</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="R146" s="5"/>
       <c r="S146" s="5"/>
       <c r="T146" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="U146" s="5" t="s">
         <v>59</v>
@@ -15936,9 +15942,9 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB146" s="7"/>
+        <v>461</v>
+      </c>
+      <c r="AB146" s="5"/>
       <c r="AC146" s="5"/>
       <c r="AD146" s="5"/>
       <c r="AE146" s="5"/>
@@ -15946,11 +15952,11 @@
       <c r="AG146" s="7"/>
       <c r="AH146" s="7"/>
       <c r="AI146" s="5" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AJ146" s="5"/>
       <c r="AK146" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL146" s="5"/>
       <c r="AM146" s="5"/>
@@ -15958,7 +15964,7 @@
       <c r="AO146" s="5"/>
       <c r="AP146" s="5"/>
       <c r="AQ146" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15969,7 +15975,7 @@
         <v>43</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>45</v>
@@ -15981,16 +15987,16 @@
         <v>2</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K147" s="5" t="n">
         <v>146</v>
@@ -15998,25 +16004,26 @@
       <c r="L147" s="5"/>
       <c r="M147" s="10"/>
       <c r="N147" s="5" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="O147" s="5" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P147" s="8" t="n">
         <v>0.0225</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="R147" s="16"/>
+        <v>479</v>
+      </c>
+      <c r="R147" s="15"/>
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
       <c r="U147" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="V147" s="5"/>
       <c r="W147" s="5"/>
+      <c r="X147" s="0"/>
       <c r="Y147" s="5" t="n">
         <v>1</v>
       </c>
@@ -16024,11 +16031,11 @@
         <v>26</v>
       </c>
       <c r="AA147" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB147" s="7"/>
+        <v>461</v>
+      </c>
+      <c r="AB147" s="5"/>
       <c r="AC147" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD147" s="5"/>
       <c r="AE147" s="5"/>
@@ -16038,7 +16045,7 @@
       <c r="AI147" s="5"/>
       <c r="AJ147" s="5"/>
       <c r="AK147" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL147" s="5"/>
       <c r="AM147" s="5"/>
@@ -16046,7 +16053,7 @@
       <c r="AO147" s="5"/>
       <c r="AP147" s="5"/>
       <c r="AQ147" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16057,7 +16064,7 @@
         <v>43</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>45</v>
@@ -16069,45 +16076,45 @@
         <v>2</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K148" s="5" t="n">
         <v>147</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M148" s="10"/>
       <c r="N148" s="5" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="O148" s="5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P148" s="8" t="n">
         <v>0.0225</v>
       </c>
       <c r="Q148" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="R148" s="5"/>
       <c r="S148" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="T148" s="5"/>
       <c r="U148" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="V148" s="19" t="n">
+        <v>483</v>
+      </c>
+      <c r="V148" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="W148" s="5" t="n">
@@ -16119,9 +16126,9 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB148" s="7"/>
+        <v>461</v>
+      </c>
+      <c r="AB148" s="5"/>
       <c r="AC148" s="5"/>
       <c r="AD148" s="5"/>
       <c r="AE148" s="5"/>
@@ -16131,7 +16138,7 @@
       <c r="AI148" s="5"/>
       <c r="AJ148" s="5"/>
       <c r="AK148" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL148" s="5"/>
       <c r="AM148" s="5"/>
@@ -16139,7 +16146,7 @@
       <c r="AO148" s="5"/>
       <c r="AP148" s="5"/>
       <c r="AQ148" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16150,7 +16157,7 @@
         <v>43</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>45</v>
@@ -16162,16 +16169,16 @@
         <v>3</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K149" s="5" t="n">
         <v>148</v>
@@ -16181,10 +16188,10 @@
         <v>147</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O149" s="5" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P149" s="8" t="n">
         <v>0</v>
@@ -16210,9 +16217,9 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB149" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="AB149" s="5" t="n">
         <v>40822426</v>
       </c>
       <c r="AC149" s="5" t="s">
@@ -16226,7 +16233,7 @@
       <c r="AI149" s="5"/>
       <c r="AJ149" s="5"/>
       <c r="AK149" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL149" s="5"/>
       <c r="AM149" s="5"/>
@@ -16234,7 +16241,7 @@
       <c r="AO149" s="5"/>
       <c r="AP149" s="5"/>
       <c r="AQ149" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16245,7 +16252,7 @@
         <v>43</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>45</v>
@@ -16257,16 +16264,16 @@
         <v>3</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K150" s="5" t="n">
         <v>149</v>
@@ -16276,10 +16283,10 @@
         <v>147</v>
       </c>
       <c r="N150" s="5" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="O150" s="5" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P150" s="8" t="n">
         <v>0</v>
@@ -16305,9 +16312,9 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB150" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="AB150" s="5" t="n">
         <v>5449000131768</v>
       </c>
       <c r="AC150" s="5" t="s">
@@ -16321,7 +16328,7 @@
       <c r="AI150" s="5"/>
       <c r="AJ150" s="5"/>
       <c r="AK150" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL150" s="5"/>
       <c r="AM150" s="5"/>
@@ -16329,7 +16336,7 @@
       <c r="AO150" s="5"/>
       <c r="AP150" s="5"/>
       <c r="AQ150" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16340,7 +16347,7 @@
         <v>43</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>45</v>
@@ -16352,16 +16359,16 @@
         <v>3</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K151" s="5" t="n">
         <v>150</v>
@@ -16371,10 +16378,10 @@
         <v>147</v>
       </c>
       <c r="N151" s="5" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="O151" s="5" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P151" s="8" t="n">
         <v>0</v>
@@ -16400,9 +16407,9 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB151" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="AB151" s="5" t="n">
         <v>5449000000996</v>
       </c>
       <c r="AC151" s="5" t="s">
@@ -16416,7 +16423,7 @@
       <c r="AI151" s="5"/>
       <c r="AJ151" s="5"/>
       <c r="AK151" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL151" s="5"/>
       <c r="AM151" s="5"/>
@@ -16424,7 +16431,7 @@
       <c r="AO151" s="5"/>
       <c r="AP151" s="5"/>
       <c r="AQ151" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16435,7 +16442,7 @@
         <v>43</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>45</v>
@@ -16447,16 +16454,16 @@
         <v>3</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K152" s="5" t="n">
         <v>151</v>
@@ -16466,10 +16473,10 @@
         <v>147</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="O152" s="5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P152" s="8" t="n">
         <v>0</v>
@@ -16495,9 +16502,9 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB152" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="AB152" s="5" t="n">
         <v>54491472</v>
       </c>
       <c r="AC152" s="5" t="s">
@@ -16511,7 +16518,7 @@
       <c r="AI152" s="5"/>
       <c r="AJ152" s="5"/>
       <c r="AK152" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL152" s="5"/>
       <c r="AM152" s="5"/>
@@ -16519,7 +16526,7 @@
       <c r="AO152" s="5"/>
       <c r="AP152" s="5"/>
       <c r="AQ152" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16530,7 +16537,7 @@
         <v>43</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>45</v>
@@ -16542,16 +16549,16 @@
         <v>3</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K153" s="5" t="n">
         <v>152</v>
@@ -16561,10 +16568,10 @@
         <v>147</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="O153" s="5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="P153" s="8" t="n">
         <v>0</v>
@@ -16590,9 +16597,9 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB153" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB153" s="5" t="s">
         <v>64</v>
       </c>
       <c r="AC153" s="5" t="s">
@@ -16606,7 +16613,7 @@
       <c r="AI153" s="5"/>
       <c r="AJ153" s="5"/>
       <c r="AK153" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL153" s="5"/>
       <c r="AM153" s="5"/>
@@ -16614,7 +16621,7 @@
       <c r="AO153" s="5"/>
       <c r="AP153" s="5"/>
       <c r="AQ153" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16625,7 +16632,7 @@
         <v>43</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>45</v>
@@ -16637,16 +16644,16 @@
         <v>3</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K154" s="5" t="n">
         <v>153</v>
@@ -16656,10 +16663,10 @@
         <v>147</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="O154" s="5" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="P154" s="8" t="n">
         <v>0</v>
@@ -16685,9 +16692,9 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB154" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="AB154" s="5" t="n">
         <v>5449000131836</v>
       </c>
       <c r="AC154" s="5" t="s">
@@ -16701,7 +16708,7 @@
       <c r="AI154" s="5"/>
       <c r="AJ154" s="5"/>
       <c r="AK154" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL154" s="5"/>
       <c r="AM154" s="5"/>
@@ -16709,7 +16716,7 @@
       <c r="AO154" s="5"/>
       <c r="AP154" s="5"/>
       <c r="AQ154" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16720,7 +16727,7 @@
         <v>43</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>45</v>
@@ -16732,16 +16739,16 @@
         <v>3</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K155" s="5" t="n">
         <v>154</v>
@@ -16751,10 +16758,10 @@
         <v>147</v>
       </c>
       <c r="N155" s="5" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="O155" s="5" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P155" s="8" t="n">
         <v>0</v>
@@ -16780,9 +16787,9 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB155" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB155" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AC155" s="5" t="s">
@@ -16796,7 +16803,7 @@
       <c r="AI155" s="5"/>
       <c r="AJ155" s="5"/>
       <c r="AK155" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL155" s="5"/>
       <c r="AM155" s="5"/>
@@ -16804,7 +16811,7 @@
       <c r="AO155" s="5"/>
       <c r="AP155" s="5"/>
       <c r="AQ155" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16815,7 +16822,7 @@
         <v>43</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>45</v>
@@ -16827,16 +16834,16 @@
         <v>3</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K156" s="5" t="n">
         <v>155</v>
@@ -16846,10 +16853,10 @@
         <v>147</v>
       </c>
       <c r="N156" s="5" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O156" s="5" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P156" s="8" t="n">
         <v>0</v>
@@ -16875,9 +16882,9 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
       <c r="AA156" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB156" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="AB156" s="5" t="n">
         <v>5449000011527</v>
       </c>
       <c r="AC156" s="5" t="s">
@@ -16891,7 +16898,7 @@
       <c r="AI156" s="5"/>
       <c r="AJ156" s="5"/>
       <c r="AK156" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL156" s="5"/>
       <c r="AM156" s="5"/>
@@ -16899,7 +16906,7 @@
       <c r="AO156" s="5"/>
       <c r="AP156" s="5"/>
       <c r="AQ156" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16910,7 +16917,7 @@
         <v>43</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>45</v>
@@ -16922,16 +16929,16 @@
         <v>3</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K157" s="5" t="n">
         <v>156</v>
@@ -16941,10 +16948,10 @@
         <v>147</v>
       </c>
       <c r="N157" s="5" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="O157" s="5" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="P157" s="8" t="n">
         <v>0</v>
@@ -16970,9 +16977,9 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
       <c r="AA157" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB157" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="AB157" s="5" t="n">
         <v>40822938</v>
       </c>
       <c r="AC157" s="5" t="s">
@@ -16986,7 +16993,7 @@
       <c r="AI157" s="5"/>
       <c r="AJ157" s="5"/>
       <c r="AK157" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL157" s="5"/>
       <c r="AM157" s="5"/>
@@ -16994,7 +17001,7 @@
       <c r="AO157" s="5"/>
       <c r="AP157" s="5"/>
       <c r="AQ157" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17005,7 +17012,7 @@
         <v>43</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>45</v>
@@ -17017,16 +17024,16 @@
         <v>3</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K158" s="5" t="n">
         <v>157</v>
@@ -17036,10 +17043,10 @@
         <v>147</v>
       </c>
       <c r="N158" s="5" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="O158" s="5" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P158" s="8" t="n">
         <v>0</v>
@@ -17065,9 +17072,9 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB158" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB158" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC158" s="5" t="s">
@@ -17081,7 +17088,7 @@
       <c r="AI158" s="5"/>
       <c r="AJ158" s="5"/>
       <c r="AK158" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL158" s="5"/>
       <c r="AM158" s="5"/>
@@ -17089,7 +17096,7 @@
       <c r="AO158" s="5"/>
       <c r="AP158" s="5"/>
       <c r="AQ158" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17100,7 +17107,7 @@
         <v>43</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>45</v>
@@ -17112,16 +17119,16 @@
         <v>3</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K159" s="5" t="n">
         <v>158</v>
@@ -17131,10 +17138,10 @@
         <v>147</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="O159" s="5" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P159" s="8" t="n">
         <v>0</v>
@@ -17160,13 +17167,13 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB159" s="7" t="s">
-        <v>502</v>
+        <v>461</v>
+      </c>
+      <c r="AB159" s="5" t="s">
+        <v>506</v>
       </c>
       <c r="AC159" s="5" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="AD159" s="5"/>
       <c r="AE159" s="5"/>
@@ -17176,7 +17183,7 @@
       <c r="AI159" s="5"/>
       <c r="AJ159" s="5"/>
       <c r="AK159" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL159" s="5"/>
       <c r="AM159" s="5"/>
@@ -17184,7 +17191,7 @@
       <c r="AO159" s="5"/>
       <c r="AP159" s="5"/>
       <c r="AQ159" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17195,7 +17202,7 @@
         <v>43</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>45</v>
@@ -17207,16 +17214,16 @@
         <v>3</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K160" s="5" t="n">
         <v>159</v>
@@ -17226,10 +17233,10 @@
         <v>147</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="O160" s="5" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P160" s="8" t="n">
         <v>0</v>
@@ -17255,13 +17262,13 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB160" s="7" t="s">
-        <v>506</v>
+        <v>461</v>
+      </c>
+      <c r="AB160" s="5" t="s">
+        <v>510</v>
       </c>
       <c r="AC160" s="5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="AD160" s="5"/>
       <c r="AE160" s="5"/>
@@ -17271,7 +17278,7 @@
       <c r="AI160" s="5"/>
       <c r="AJ160" s="5"/>
       <c r="AK160" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL160" s="5"/>
       <c r="AM160" s="5"/>
@@ -17279,7 +17286,7 @@
       <c r="AO160" s="5"/>
       <c r="AP160" s="5"/>
       <c r="AQ160" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17290,7 +17297,7 @@
         <v>43</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>45</v>
@@ -17302,16 +17309,16 @@
         <v>3</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K161" s="5" t="n">
         <v>160</v>
@@ -17321,10 +17328,10 @@
         <v>147</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="O161" s="5" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P161" s="8" t="n">
         <v>0</v>
@@ -17350,9 +17357,9 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
       <c r="AA161" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB161" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="AB161" s="5" t="n">
         <v>5060335632906</v>
       </c>
       <c r="AC161" s="5" t="s">
@@ -17366,7 +17373,7 @@
       <c r="AI161" s="5"/>
       <c r="AJ161" s="5"/>
       <c r="AK161" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL161" s="5"/>
       <c r="AM161" s="5"/>
@@ -17374,7 +17381,7 @@
       <c r="AO161" s="5"/>
       <c r="AP161" s="5"/>
       <c r="AQ161" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17385,7 +17392,7 @@
         <v>43</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>45</v>
@@ -17397,16 +17404,16 @@
         <v>3</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K162" s="5" t="n">
         <v>161</v>
@@ -17416,10 +17423,10 @@
         <v>147</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="O162" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P162" s="8" t="n">
         <v>0</v>
@@ -17445,9 +17452,9 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
       <c r="AA162" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB162" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="AB162" s="5" t="n">
         <v>5449000014535</v>
       </c>
       <c r="AC162" s="5" t="s">
@@ -17461,7 +17468,7 @@
       <c r="AI162" s="5"/>
       <c r="AJ162" s="5"/>
       <c r="AK162" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL162" s="5"/>
       <c r="AM162" s="5"/>
@@ -17469,7 +17476,7 @@
       <c r="AO162" s="5"/>
       <c r="AP162" s="5"/>
       <c r="AQ162" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17480,7 +17487,7 @@
         <v>43</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>45</v>
@@ -17492,16 +17499,16 @@
         <v>3</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K163" s="5" t="n">
         <v>162</v>
@@ -17511,10 +17518,10 @@
         <v>147</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="O163" s="5" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P163" s="8" t="n">
         <v>0</v>
@@ -17540,9 +17547,9 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
       <c r="AA163" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB163" s="7" t="n">
+        <v>461</v>
+      </c>
+      <c r="AB163" s="5" t="n">
         <v>54491069</v>
       </c>
       <c r="AC163" s="5" t="s">
@@ -17556,7 +17563,7 @@
       <c r="AI163" s="5"/>
       <c r="AJ163" s="5"/>
       <c r="AK163" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL163" s="5"/>
       <c r="AM163" s="5"/>
@@ -17564,7 +17571,7 @@
       <c r="AO163" s="5"/>
       <c r="AP163" s="5"/>
       <c r="AQ163" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17575,7 +17582,7 @@
         <v>43</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>45</v>
@@ -17587,16 +17594,16 @@
         <v>3</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K164" s="5" t="n">
         <v>163</v>
@@ -17606,10 +17613,10 @@
         <v>147</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="O164" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="P164" s="8" t="n">
         <v>0</v>
@@ -17635,9 +17642,9 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
       <c r="AA164" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB164" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB164" s="5" t="s">
         <v>79</v>
       </c>
       <c r="AC164" s="5" t="s">
@@ -17651,7 +17658,7 @@
       <c r="AI164" s="5"/>
       <c r="AJ164" s="5"/>
       <c r="AK164" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL164" s="5"/>
       <c r="AM164" s="5"/>
@@ -17659,7 +17666,7 @@
       <c r="AO164" s="5"/>
       <c r="AP164" s="5"/>
       <c r="AQ164" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17670,7 +17677,7 @@
         <v>43</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>45</v>
@@ -17682,16 +17689,16 @@
         <v>2</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K165" s="5" t="n">
         <v>164</v>
@@ -17699,24 +17706,24 @@
       <c r="L165" s="5"/>
       <c r="M165" s="10"/>
       <c r="N165" s="5" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="O165" s="5" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P165" s="8" t="n">
         <v>0.0225</v>
       </c>
       <c r="Q165" s="5" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="R165" s="5"/>
       <c r="S165" s="5"/>
       <c r="T165" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="U165" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="V165" s="5"/>
       <c r="W165" s="5"/>
@@ -17724,13 +17731,13 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
       <c r="AA165" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AB165" s="7" t="s">
         <v>461</v>
       </c>
+      <c r="AB165" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="AC165" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD165" s="5"/>
       <c r="AE165" s="5"/>
@@ -17740,7 +17747,7 @@
       <c r="AI165" s="5"/>
       <c r="AJ165" s="5"/>
       <c r="AK165" s="5" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AL165" s="5"/>
       <c r="AM165" s="5"/>
@@ -17748,7 +17755,7 @@
       <c r="AO165" s="5"/>
       <c r="AP165" s="5"/>
       <c r="AQ165" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17759,47 +17766,47 @@
         <v>43</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F166" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="K166" s="5" t="n">
         <v>165</v>
       </c>
-      <c r="L166" s="15" t="s">
-        <v>521</v>
+      <c r="L166" s="14" t="s">
+        <v>525</v>
       </c>
       <c r="M166" s="10"/>
       <c r="N166" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="O166" s="5" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P166" s="8" t="n">
         <v>0.02</v>
       </c>
       <c r="Q166" s="5" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="R166" s="5"/>
       <c r="S166" s="5" t="s">
@@ -17807,7 +17814,7 @@
       </c>
       <c r="T166" s="5"/>
       <c r="U166" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="V166" s="5"/>
       <c r="W166" s="5"/>
@@ -17817,7 +17824,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
       <c r="AA166" s="5"/>
-      <c r="AB166" s="7"/>
+      <c r="AB166" s="5"/>
       <c r="AC166" s="5"/>
       <c r="AD166" s="5"/>
       <c r="AE166" s="5"/>
@@ -17827,7 +17834,7 @@
       <c r="AI166" s="5"/>
       <c r="AJ166" s="5"/>
       <c r="AK166" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AL166" s="5"/>
       <c r="AM166" s="5"/>
@@ -17844,28 +17851,28 @@
         <v>43</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F167" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="K167" s="5" t="n">
         <v>166</v>
@@ -17875,26 +17882,26 @@
         <v>165</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="O167" s="5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="P167" s="8" t="n">
         <v>1</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="R167" s="16"/>
+        <v>529</v>
+      </c>
+      <c r="R167" s="15"/>
       <c r="S167" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="U167" s="5" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="V167" s="5"/>
       <c r="W167" s="5"/>
@@ -17906,11 +17913,11 @@
       </c>
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
-      <c r="AB167" s="7" t="s">
-        <v>461</v>
+      <c r="AB167" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="AC167" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AD167" s="5"/>
       <c r="AE167" s="5"/>
@@ -17920,7 +17927,7 @@
       <c r="AI167" s="5"/>
       <c r="AJ167" s="5"/>
       <c r="AK167" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AL167" s="5"/>
       <c r="AM167" s="5"/>
@@ -17928,7 +17935,7 @@
       <c r="AO167" s="5"/>
       <c r="AP167" s="5"/>
       <c r="AQ167" s="5" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17939,47 +17946,47 @@
         <v>43</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F168" s="5" t="n">
         <v>2</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K168" s="5" t="n">
         <v>167</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M168" s="10"/>
       <c r="N168" s="5" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="O168" s="5" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P168" s="8" t="n">
         <v>0.03</v>
       </c>
       <c r="Q168" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="R168" s="5"/>
       <c r="S168" s="5" t="s">
@@ -17987,7 +17994,7 @@
       </c>
       <c r="T168" s="5"/>
       <c r="U168" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="V168" s="5"/>
       <c r="W168" s="5"/>
@@ -17997,7 +18004,7 @@
       <c r="Y168" s="5"/>
       <c r="Z168" s="5"/>
       <c r="AA168" s="5"/>
-      <c r="AB168" s="7"/>
+      <c r="AB168" s="5"/>
       <c r="AC168" s="5"/>
       <c r="AD168" s="5"/>
       <c r="AE168" s="5"/>
@@ -18022,28 +18029,28 @@
         <v>43</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F169" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K169" s="5" t="n">
         <v>168</v>
@@ -18053,23 +18060,23 @@
         <v>167</v>
       </c>
       <c r="N169" s="5" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="O169" s="5" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P169" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q169" s="5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="R169" s="5"/>
       <c r="S169" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T169" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="U169" s="5" t="s">
         <v>59</v>
@@ -18082,7 +18089,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
       <c r="AA169" s="5"/>
-      <c r="AB169" s="7"/>
+      <c r="AB169" s="5"/>
       <c r="AC169" s="5"/>
       <c r="AD169" s="5"/>
       <c r="AE169" s="5"/>
@@ -18093,7 +18100,7 @@
       <c r="AJ169" s="5"/>
       <c r="AK169" s="5"/>
       <c r="AL169" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AM169" s="5"/>
       <c r="AN169" s="5"/>
@@ -18109,28 +18116,28 @@
         <v>43</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F170" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K170" s="5" t="n">
         <v>169</v>
@@ -18140,23 +18147,23 @@
         <v>167</v>
       </c>
       <c r="N170" s="5" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="O170" s="5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="P170" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q170" s="5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="R170" s="5"/>
       <c r="S170" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T170" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="U170" s="5" t="s">
         <v>59</v>
@@ -18169,7 +18176,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
-      <c r="AB170" s="7"/>
+      <c r="AB170" s="5"/>
       <c r="AC170" s="5"/>
       <c r="AD170" s="5"/>
       <c r="AE170" s="5"/>
@@ -18179,8 +18186,8 @@
       <c r="AI170" s="5"/>
       <c r="AJ170" s="5"/>
       <c r="AK170" s="5"/>
-      <c r="AL170" s="16" t="s">
-        <v>541</v>
+      <c r="AL170" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="AM170" s="5"/>
       <c r="AN170" s="5"/>
@@ -18196,28 +18203,28 @@
         <v>43</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F171" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K171" s="5" t="n">
         <v>170</v>
@@ -18227,23 +18234,23 @@
         <v>167</v>
       </c>
       <c r="N171" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="O171" s="16" t="s">
-        <v>543</v>
+        <v>546</v>
+      </c>
+      <c r="O171" s="15" t="s">
+        <v>547</v>
       </c>
       <c r="P171" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q171" s="5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="R171" s="5"/>
       <c r="S171" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T171" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="U171" s="5" t="s">
         <v>59</v>
@@ -18256,7 +18263,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
       <c r="AA171" s="5"/>
-      <c r="AB171" s="7"/>
+      <c r="AB171" s="5"/>
       <c r="AC171" s="5"/>
       <c r="AD171" s="5"/>
       <c r="AE171" s="5"/>
@@ -18266,8 +18273,8 @@
       <c r="AI171" s="5"/>
       <c r="AJ171" s="5"/>
       <c r="AK171" s="5"/>
-      <c r="AL171" s="16" t="s">
-        <v>544</v>
+      <c r="AL171" s="15" t="s">
+        <v>548</v>
       </c>
       <c r="AM171" s="5"/>
       <c r="AN171" s="5"/>
@@ -18283,28 +18290,28 @@
         <v>43</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F172" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K172" s="5" t="n">
         <v>171</v>
@@ -18313,24 +18320,24 @@
       <c r="M172" s="5" t="n">
         <v>167</v>
       </c>
-      <c r="N172" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="O172" s="16" t="s">
-        <v>546</v>
+      <c r="N172" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="O172" s="15" t="s">
+        <v>550</v>
       </c>
       <c r="P172" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q172" s="5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="R172" s="5"/>
       <c r="S172" s="5" t="s">
         <v>57</v>
       </c>
       <c r="T172" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="U172" s="5" t="s">
         <v>59</v>
@@ -18343,7 +18350,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
       <c r="AA172" s="5"/>
-      <c r="AB172" s="7"/>
+      <c r="AB172" s="5"/>
       <c r="AC172" s="5"/>
       <c r="AD172" s="5"/>
       <c r="AE172" s="5"/>
@@ -18353,8 +18360,8 @@
       <c r="AI172" s="5"/>
       <c r="AJ172" s="5"/>
       <c r="AK172" s="5"/>
-      <c r="AL172" s="16" t="s">
-        <v>547</v>
+      <c r="AL172" s="15" t="s">
+        <v>551</v>
       </c>
       <c r="AM172" s="5"/>
       <c r="AN172" s="5"/>
@@ -18370,13 +18377,13 @@
         <v>43</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -18387,27 +18394,27 @@
         <v>172</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="M173" s="5"/>
-      <c r="N173" s="20" t="s">
-        <v>551</v>
+      <c r="N173" s="19" t="s">
+        <v>555</v>
       </c>
       <c r="O173" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="P173" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q173" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="R173" s="5" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="S173" s="5"/>
       <c r="T173" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="U173" s="5"/>
       <c r="V173" s="5"/>
@@ -18441,13 +18448,13 @@
         <v>43</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -18461,24 +18468,24 @@
         <v>167</v>
       </c>
       <c r="M174" s="5"/>
-      <c r="N174" s="21" t="s">
-        <v>557</v>
+      <c r="N174" s="20" t="s">
+        <v>561</v>
       </c>
       <c r="O174" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="P174" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="R174" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="P174" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q174" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="R174" s="5" t="s">
-        <v>554</v>
       </c>
       <c r="S174" s="5"/>
       <c r="T174" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="U174" s="5"/>
       <c r="V174" s="5"/>
@@ -18512,13 +18519,13 @@
         <v>43</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -18529,27 +18536,27 @@
         <v>174</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M175" s="5"/>
-      <c r="N175" s="21" t="s">
-        <v>562</v>
+      <c r="N175" s="20" t="s">
+        <v>566</v>
       </c>
       <c r="O175" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P175" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q175" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="R175" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="S175" s="5"/>
       <c r="T175" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="U175" s="5"/>
       <c r="V175" s="5"/>
@@ -18583,13 +18590,13 @@
         <v>43</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
@@ -18603,24 +18610,24 @@
         <v>165</v>
       </c>
       <c r="M176" s="5"/>
-      <c r="N176" s="21" t="s">
-        <v>567</v>
+      <c r="N176" s="20" t="s">
+        <v>571</v>
       </c>
       <c r="O176" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="P176" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q176" s="5" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="R176" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="S176" s="5"/>
       <c r="T176" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="U176" s="5"/>
       <c r="V176" s="5"/>
@@ -18654,13 +18661,13 @@
         <v>43</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
@@ -18671,27 +18678,27 @@
         <v>176</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="M177" s="5"/>
-      <c r="N177" s="21" t="s">
-        <v>571</v>
+      <c r="N177" s="20" t="s">
+        <v>575</v>
       </c>
       <c r="O177" s="5" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="P177" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q177" s="5" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="R177" s="5" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="S177" s="5"/>
       <c r="T177" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="U177" s="5"/>
       <c r="V177" s="5"/>
@@ -18725,13 +18732,13 @@
         <v>43</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
@@ -18743,24 +18750,24 @@
       </c>
       <c r="L178" s="5"/>
       <c r="M178" s="5"/>
-      <c r="N178" s="21" t="s">
-        <v>574</v>
+      <c r="N178" s="20" t="s">
+        <v>578</v>
       </c>
       <c r="O178" s="5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P178" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q178" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="R178" s="5" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="S178" s="5"/>
       <c r="T178" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="U178" s="5"/>
       <c r="V178" s="5"/>
@@ -18770,7 +18777,7 @@
       <c r="Z178" s="5"/>
       <c r="AA178" s="5"/>
       <c r="AB178" s="5" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="AC178" s="5"/>
       <c r="AD178" s="5"/>
@@ -18782,7 +18789,7 @@
       <c r="AJ178" s="5"/>
       <c r="AK178" s="5"/>
       <c r="AL178" s="6" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="AM178" s="5"/>
       <c r="AN178" s="5"/>
@@ -18798,13 +18805,13 @@
         <v>43</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
@@ -18816,24 +18823,24 @@
       </c>
       <c r="L179" s="5"/>
       <c r="M179" s="5"/>
-      <c r="N179" s="21" t="s">
-        <v>581</v>
+      <c r="N179" s="20" t="s">
+        <v>585</v>
       </c>
       <c r="O179" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="P179" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q179" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="R179" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="S179" s="5"/>
       <c r="T179" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="U179" s="5"/>
       <c r="V179" s="5"/>
@@ -18843,7 +18850,7 @@
       <c r="Z179" s="5"/>
       <c r="AA179" s="5"/>
       <c r="AB179" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="AC179" s="5"/>
       <c r="AD179" s="5"/>
@@ -18855,7 +18862,7 @@
       <c r="AJ179" s="5"/>
       <c r="AK179" s="5"/>
       <c r="AL179" s="6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="AM179" s="5"/>
       <c r="AN179" s="5"/>
@@ -18871,13 +18878,13 @@
         <v>43</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
@@ -18889,24 +18896,24 @@
       </c>
       <c r="L180" s="5"/>
       <c r="M180" s="5"/>
-      <c r="N180" s="21" t="s">
-        <v>588</v>
+      <c r="N180" s="20" t="s">
+        <v>592</v>
       </c>
       <c r="O180" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="P180" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q180" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="R180" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="S180" s="5"/>
       <c r="T180" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="U180" s="5"/>
       <c r="V180" s="5"/>
@@ -18916,7 +18923,7 @@
       <c r="Z180" s="5"/>
       <c r="AA180" s="5"/>
       <c r="AB180" s="5" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="AC180" s="5"/>
       <c r="AD180" s="5"/>
@@ -18928,7 +18935,7 @@
       <c r="AJ180" s="5"/>
       <c r="AK180" s="5"/>
       <c r="AL180" s="6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="AM180" s="5"/>
       <c r="AN180" s="5"/>
@@ -18944,13 +18951,13 @@
         <v>43</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -18964,24 +18971,24 @@
         <v>110</v>
       </c>
       <c r="M181" s="5"/>
-      <c r="N181" s="21" t="s">
-        <v>592</v>
+      <c r="N181" s="20" t="s">
+        <v>596</v>
       </c>
       <c r="O181" s="5" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="P181" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q181" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="R181" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="S181" s="5"/>
       <c r="T181" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="U181" s="5"/>
       <c r="V181" s="5"/>
@@ -18991,7 +18998,7 @@
       <c r="Z181" s="5"/>
       <c r="AA181" s="5"/>
       <c r="AB181" s="6" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="AC181" s="5"/>
       <c r="AD181" s="5"/>
@@ -19003,7 +19010,7 @@
       <c r="AJ181" s="5"/>
       <c r="AK181" s="5"/>
       <c r="AL181" s="6" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AM181" s="5"/>
       <c r="AN181" s="5"/>
@@ -19019,13 +19026,13 @@
         <v>43</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
@@ -19039,24 +19046,24 @@
         <v>118</v>
       </c>
       <c r="M182" s="5"/>
-      <c r="N182" s="21" t="s">
-        <v>592</v>
+      <c r="N182" s="20" t="s">
+        <v>596</v>
       </c>
       <c r="O182" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="P182" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q182" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="R182" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="S182" s="5"/>
       <c r="T182" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="U182" s="5"/>
       <c r="V182" s="5"/>
@@ -19066,7 +19073,7 @@
       <c r="Z182" s="5"/>
       <c r="AA182" s="5"/>
       <c r="AB182" s="6" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="AC182" s="5"/>
       <c r="AD182" s="5"/>
@@ -19078,7 +19085,7 @@
       <c r="AJ182" s="5"/>
       <c r="AK182" s="5"/>
       <c r="AL182" s="6" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="AM182" s="5"/>
       <c r="AN182" s="5"/>
@@ -19094,13 +19101,13 @@
         <v>43</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
@@ -19114,24 +19121,24 @@
         <v>125</v>
       </c>
       <c r="M183" s="5"/>
-      <c r="N183" s="21" t="s">
-        <v>592</v>
+      <c r="N183" s="20" t="s">
+        <v>596</v>
       </c>
       <c r="O183" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="P183" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q183" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="R183" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="S183" s="5"/>
       <c r="T183" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="U183" s="5"/>
       <c r="V183" s="5"/>
@@ -19141,7 +19148,7 @@
       <c r="Z183" s="5"/>
       <c r="AA183" s="5"/>
       <c r="AB183" s="6" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="AC183" s="5"/>
       <c r="AD183" s="5"/>
@@ -19153,7 +19160,7 @@
       <c r="AJ183" s="5"/>
       <c r="AK183" s="5"/>
       <c r="AL183" s="6" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AM183" s="5"/>
       <c r="AN183" s="5"/>
@@ -19169,13 +19176,13 @@
         <v>43</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
@@ -19189,24 +19196,24 @@
         <v>136</v>
       </c>
       <c r="M184" s="5"/>
-      <c r="N184" s="21" t="s">
-        <v>592</v>
+      <c r="N184" s="20" t="s">
+        <v>596</v>
       </c>
       <c r="O184" s="5" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="P184" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q184" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="R184" s="5" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="S184" s="5"/>
       <c r="T184" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="U184" s="5"/>
       <c r="V184" s="5"/>
@@ -19216,7 +19223,7 @@
       <c r="Z184" s="5"/>
       <c r="AA184" s="5"/>
       <c r="AB184" s="6" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AC184" s="5"/>
       <c r="AD184" s="5"/>
@@ -19228,7 +19235,7 @@
       <c r="AJ184" s="5"/>
       <c r="AK184" s="5"/>
       <c r="AL184" s="6" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="AM184" s="5"/>
       <c r="AN184" s="5"/>
@@ -19364,7 +19371,7 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AH227" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19465,7 +19472,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AH260" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19547,8 +19554,8 @@
       <c r="AH286" s="7"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH287" s="23" t="s">
-        <v>606</v>
+      <c r="AH287" s="22" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19657,7 +19664,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G111:J137 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19666,49 +19673,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="G1" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>610</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>611</v>
+      <c r="K1" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="26" t="s">
-        <v>612</v>
+      <c r="B4" s="25" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Convenience Big PoS 2018.xlsx
@@ -12,10 +12,10 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
@@ -66,6 +66,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2484,44 +2485,44 @@
   </sheetPr>
   <dimension ref="1:312"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="AB33" activeCellId="0" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="33" min="30" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1007" min="35" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="1008" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="30" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1007" min="35" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="1008" style="0" width="22.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19634,7 +19635,7 @@
       <c r="AH312" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ184"/>
+  <autoFilter ref="A1:AQ172"/>
   <conditionalFormatting sqref="O98:O100">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/Convenience Big PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Convenience Big PoS 2018.xlsx
@@ -12,11 +12,11 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$184</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
@@ -67,6 +67,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Convenience Big'!$A$1:$AQ$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="615">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2115,12 +2116,6 @@
     <t xml:space="preserve">Company Display: Ice Tea Other
 Company Display: Ice Tea Freezer/Cooler-Side
 Company Display: Ice Tea Europallet/ 1/2 pallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPARI</t>
   </si>
   <si>
     <t xml:space="preserve">Scene</t>
@@ -2292,7 +2287,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2378,10 +2373,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2483,46 +2474,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:312"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AB33" activeCellId="0" sqref="AB33"/>
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AB185" activeCellId="0" sqref="AB185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="30" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1007" min="35" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="1008" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="33" min="30" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1007" min="35" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1008" style="0" width="22.7085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="51.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19244,398 +19234,268 @@
       <c r="AP184" s="5"/>
       <c r="AQ184" s="5"/>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH185" s="7"/>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH186" s="7"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH187" s="7"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH188" s="7"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH189" s="7"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH190" s="7"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH191" s="7"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH192" s="7"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH193" s="7"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH194" s="7"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH195" s="7"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH196" s="7"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH197" s="7"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH198" s="7"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH199" s="7"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH200" s="7"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH201" s="7"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH202" s="7"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH203" s="7"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH204" s="7"/>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH205" s="7"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH206" s="7"/>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH207" s="7"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH208" s="7"/>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH209" s="7"/>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH210" s="7"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH211" s="7"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH212" s="7"/>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH213" s="7"/>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH214" s="7"/>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH215" s="7"/>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH216" s="7"/>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH217" s="7"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH218" s="7"/>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH219" s="7"/>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH220" s="7"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH221" s="7"/>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH222" s="7"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH223" s="7"/>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH224" s="7"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH225" s="7"/>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH226" s="7"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH227" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH228" s="7"/>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH229" s="7"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH230" s="7"/>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH231" s="7"/>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH232" s="7"/>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH233" s="7"/>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH234" s="7"/>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH235" s="7"/>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH236" s="7"/>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH237" s="7"/>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH238" s="7"/>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH239" s="7"/>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH240" s="7"/>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH241" s="7"/>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH242" s="7"/>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH243" s="7"/>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH244" s="7"/>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH245" s="7"/>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH246" s="7"/>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH247" s="7"/>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH248" s="7"/>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH249" s="7"/>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH250" s="7"/>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH251" s="7"/>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH252" s="7"/>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH253" s="7"/>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH254" s="7"/>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH255" s="7"/>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH256" s="7"/>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH257" s="7"/>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH258" s="7"/>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH259" s="7"/>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH260" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH261" s="7"/>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH262" s="7"/>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH263" s="7"/>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH264" s="7"/>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH265" s="7"/>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH266" s="7"/>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH267" s="7"/>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH268" s="7"/>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH269" s="7"/>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH270" s="7"/>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH271" s="7"/>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH272" s="7"/>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH273" s="7"/>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH274" s="7"/>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH275" s="7"/>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH276" s="7"/>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH277" s="7"/>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH278" s="7"/>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH279" s="7"/>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH280" s="7"/>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH281" s="7"/>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH282" s="7"/>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH283" s="7"/>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH284" s="7"/>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH285" s="7"/>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH286" s="7"/>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH287" s="22" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH288" s="7"/>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH289" s="7"/>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH290" s="7"/>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH291" s="7"/>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH292" s="7"/>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH293" s="7"/>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH294" s="7"/>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH295" s="5"/>
-    </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH296" s="5"/>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH297" s="5"/>
-    </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH298" s="5"/>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH299" s="5"/>
-    </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH300" s="5"/>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH301" s="5"/>
-    </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH302" s="5"/>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH303" s="5"/>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH304" s="5"/>
-    </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH305" s="5"/>
-    </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH306" s="5"/>
-    </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH307" s="5"/>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH308" s="5"/>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH309" s="5"/>
-    </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH310" s="5"/>
-    </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH311" s="5"/>
-    </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH312" s="5"/>
-    </row>
+    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AQ172"/>
+  <autoFilter ref="A1:AQ184"/>
   <conditionalFormatting sqref="O98:O100">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
@@ -19674,49 +19534,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>613</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="25" t="s">
-        <v>616</v>
+      <c r="B4" s="24" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
